--- a/assets/data/_in/x.xlsx
+++ b/assets/data/_in/x.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eithan/opt/dev/phase3/assets/data/_in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A59770D-372D-D449-AFB5-809F0705272A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A5FDA3F-B3EC-4742-8CA0-7AF9A4791818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15800" yWindow="7160" windowWidth="14480" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="500" windowWidth="14480" windowHeight="11640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="פעולות לביצוע" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'פעולות לביצוע'!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'רשימת סיכונים'!$A$1:$Q$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'רשימת סיכונים'!$A$1:$Q$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'רשימת סיכונים טיוטה'!$A$1:$P$130</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,9 +35,9 @@
     <customWorkbookView name="pmzpan1 - תצוגה אישית" guid="{84E79C6F-8997-4758-8B71-1AD5CC09EAFF}" mergeInterval="0" personalView="1" maximized="1" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="1"/>
   </customWorkbookViews>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId10"/>
-    <pivotCache cacheId="4" r:id="rId11"/>
-    <pivotCache cacheId="5" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="606">
   <si>
     <t>#</t>
   </si>
@@ -1393,10 +1393,6 @@
 ב. שימוש באמצעים ידניים "עוקפי תהליך"</t>
   </si>
   <si>
-    <t>מערכת הזכיין תעבוד במקביל למערכות הצהליות שיתנו מענה דומה משך 3 שנים. 
-אי זמינות תמונת מצב אינטגרטיבית המאפשרת ניהול וקבלת החלטות מיטבית בשלב הביניים - חלק מהמרחבים יעבדו בתצורה הקיימת וחלק מהמרחבים יעבדו בתצורה החדשה, מול מערכות זכיין</t>
-  </si>
-  <si>
     <t>משלב הגדרת הצורך עד הדרישה, כולל דמ"צ</t>
   </si>
   <si>
@@ -1541,11 +1537,6 @@
   </si>
   <si>
     <t>הסבות מידע</t>
-  </si>
-  <si>
-    <t>1. עיכוב במועד העליה לאויר ומוכנות למועד האינטגציה עם הזכיין
-2. שגיאות וטעויות במידע ידרשו תיקונים ויגרמו אי ודאות במהלך האינטגרציה
-3. אבדן אמון באמינות המערכת</t>
   </si>
   <si>
     <t>1. שימוש במשתמש גנרי "חזק" - הרשאות גורפות גם למי שאינו נדרש להן
@@ -1752,10 +1743,6 @@
 2. עיכוב לו"ז האינטגרציה</t>
   </si>
   <si>
-    <t>א. תמונת המצב האינטגרטיבית אינה כוללת מידע קריטי ומהותי הדרוש לניהול וקבלת החלטות או שהנתונים אינם נכונים
-ב. שינוי עדיפות מימוש תמונת מצב האינטגרטיבית</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1. אי עמידה בלו"ז הפרויקט
 2. פגיעה באיכות האפיון והבדיקות
 3. קושי בהטמעה בשל פתרון שאינו מותאם למשתמש
@@ -1824,14 +1811,6 @@
   <si>
     <t>1. אי שימור ידע בפרוייקט לאור תחלופת בעלי תפקידים (קפ"ט/מיישמים/יועצים).
 2. קושי בגיוס יועצים בעלי ידע מתאים (תהליך ארוך).</t>
-  </si>
-  <si>
-    <t>1. איתור כ"א חליפי מתוך המערכת למתן מענה זמני.
-2. מימוש תכנית חפיפה סדורה.
-3. תעדוף תכולות.</t>
-  </si>
-  <si>
-    <t>תחלופת כ"א הפוגעת ביכולת לממש את המשימות בנתיב הקריטי</t>
   </si>
   <si>
     <t>גיבוש מדורג של תכנון מפורט ומתכנס לכלל שלבי הפרויקט (P4P,REAL, בדיקות, הסבות) הכולל את משימות כל הגורמים המעורבים (משתמשים, אמל"ח, יישום, הטמעה והפעלה...)</t>
@@ -2142,9 +2121,6 @@
 2. פגיעה באיכות האינטגרציה בין מערכת ה SAP למערכות המידע לתפעול ייעודי</t>
   </si>
   <si>
-    <t>ניהול השינויים יקבע מה על חשבון מה וניערך בהתאם למה שקריטי לסביבת האינטגרציה</t>
-  </si>
-  <si>
     <t>פגיעה ביכולת ניהול, בקרת ואישור תוצרי הזכיין לאור ניהול פרויקט ה SAP במקביל לפרויקט מול הזכיין</t>
   </si>
   <si>
@@ -2153,9 +2129,6 @@
   <si>
     <t>1. הגדרת סד"ע – משימות מול זכיין בעדיפות עליונה – בוצע.
 2. התעצמות בכ"א רס"ן, אע"צ, מנתחי מערכות – בתהליך - אחריות רע"ן מע"מ לוגיסטיות</t>
-  </si>
-  <si>
-    <t>סיכון שהתממש מנוהל במסגרת תוכנית העבודה להשלמת שלב ה BP. המשמעויות יבחנו במסגרת בניית גאנט ה REAL</t>
   </si>
   <si>
     <t>1. הובלת תרחיש שרשרת האספקה ע"י הקפ"ט.
@@ -2238,16 +2211,7 @@
     <t>כתיבת אפיון שלא בראיית מרה"ס בהיבט האו"שי</t>
   </si>
   <si>
-    <t>במסגרת הBP נותחו ההסבות, מספר ההסבות שזוהו עד כה הן מינימאליות - יש לבצע העמקה בנושא, מוקדם ככל הניתן, במסגרת שלב ה REAL</t>
-  </si>
-  <si>
     <t>לאור ההעמקה שבוצעה בשלב ה BP, בהשתתפות בע"ת המנוסים ביותר, הובלת מפקדים וניהול התוצרים ברמה קפדנית מבוססת מערכות, הסיכון פחת לרמת מינימום.</t>
-  </si>
-  <si>
-    <t>אנחנו בתהליך ליצירת השפה המשותפת דרך אינטגרציה של מטריצות בקרת העקיבות מזמין - זכיין.</t>
-  </si>
-  <si>
-    <t>סיכון שהתממש . אישור סקר ה SRR נמצא בעיכוב של 3 חדשים ומשפיע על תוכנית העבודה של הזכיין למימוש אבני הדרך הבאות. הטיפול בנושא בהובלת ר' מנהלת מרה"ס בשיתוף משהב"ט .</t>
   </si>
   <si>
     <t>לא רלוונטי - זהה לסיכון מס' 3</t>
@@ -2257,13 +2221,6 @@
   </si>
   <si>
     <t>הטמעה והפעלה</t>
-  </si>
-  <si>
-    <t>1. מעורבות מפקדים.
-2. תכנון מקדים ומתן קשב לנושא התסריטים הבדיקות מיד לאחר שלב ה- BP</t>
-  </si>
-  <si>
-    <t>תכנית הפרויקט תכיל משימות פרטניות לבניית תסריטי בדיקות שתואמות לדרישות.</t>
   </si>
   <si>
     <t>1. העמקה באפיון ובמשמעות מימוש יכולת ותהליכים הנמצאים בנתיב הקריטי - בוצע
@@ -2291,10 +2248,6 @@
     <t>סיכון שאיננו רלבנטי בשלב זה. מפקדת המרה"ס הוקמה ושולבה במסגרת שלב האפיון לרבות אישור כלל מסמכי ה BP .</t>
   </si>
   <si>
-    <t>1. מיקוד בתיעוד לטובת שימור ידע - בוצע במסגרת שלב ה BP ובקרת העקיבות.
-2. זיהוי בע"ת קריטיים וביצוע פעילות סדורה להבטחת שימורם.</t>
-  </si>
-  <si>
     <t>1. העמקה באפיון ובמשמעות מימוש יכולת ותהליכים הנמצאים בנתיב הקריטי - בוצע
 2. דגש בבדיקות על משימות ויכולות חדשות וקריטיות
 3. בחינת ההשפעה והמשמעות הרוחביים של תהליכים ויכולות חדשים או שונים באופן מהותי מהקיים</t>
@@ -2302,9 +2255,6 @@
   <si>
     <t>1. עיבוי כ"א לניהול הפרויקט באמל"ח - לא בוצע
 2. בנייה וניהול תמונת מצב אינטגרטיבית של לוחות הזמנים ואבני הדרך.</t>
-  </si>
-  <si>
-    <t>נדרש לייצר תכנית עבודה לשלב הREAL ומיד לאחר מכן תכנית עבודה לשלב הבדיקות</t>
   </si>
   <si>
     <t>לא רלוונטי - זהה לסיכון מס' 7</t>
@@ -2325,9 +2275,6 @@
     <t>כתיבת נהלי עבודה ברורים לתקופת הביניים</t>
   </si>
   <si>
-    <t>בוצע חלקית בשלב ה BP . יש לבצע העמקה בשלב ה REAL.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. שינוי ארגוני המשפיע על המידע ועל תהליכי העבודה שאופיינו בפרויקט
 2. שינויים בתהליכים מבצעיים בצה"ל (מערך המזון). 
 3. תחלופת מפקדים </t>
@@ -2336,9 +2283,6 @@
     <t>1. תיקון כלל ההערות שניתנו לתוצרי טרום חתימה - בוצע חלקית
 2. שולחנות עגולים לתיאום ציפיות עם הזכיין - בוצע חלקית
 3. תוכנית עבודה מפורטת של הזכיין למימוש אבני הדרך הבאות במקביל לעבודה על אבן הדרך הנוכחית.</t>
-  </si>
-  <si>
-    <t>תקן רס"ן אושר ע"י אג"ת אך אין שיאים</t>
   </si>
   <si>
     <t>Row Labels</t>
@@ -2374,12 +2318,320 @@
 2. הארכת הסכם מכרז יועצים פרטני בשנתיים נוספות</t>
   </si>
   <si>
-    <t>נדרשת מעורבות בכירים גם בצד הלקוח/אמל"ח מול מנה"ר</t>
-  </si>
-  <si>
     <t>א. שימוש בבאפר פרוייקטלי
 ב. תעדוף תכולות
 ג. מימוש תכולות בנתיב קריטי בלבד</t>
+  </si>
+  <si>
+    <t>שלושת הבלו-פרינטים נמצאים בהכנה ומיועדים להסתיים ב-31/7/2021, ועל פי בחינה מחודשת אין לאיחור כל השפעה על תכנית העבודה של היישום</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">סיכון שהתממש . אישור סקר ה SRR נמצא בעיכוב של 3 חדשים ומשפיע על תוכנית העבודה של הזכיין למימוש אבני הדרך הבאות. הטיפול בנושא בהובלת ר' מנהלת מרה"ס בשיתוף משהב"ט .
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13/07/2022:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> אנו נמצאים בפעילות שוטפת מול הזכיין לגבי הפקתם של תוצרי הביניים, כל הקשר עם הזכיין מטופל במסגרת פעילות הניהול היומיומית. מטופל כנושא לטיפול ולא כסיכון</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>תקן רס"ן אושר ע"י אג"ת אך אין שיאים</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+13/07/2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: יש אישור לתקנים ועד לאיוש התקנים הוקם משרד ניהול  הפרויקט שפועל בצירי ה-SAP והזכיין כאחד.
+פותחו מערכות מחשוב תומכות לייעול תהליך הניהול</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">13/07/2021: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>מתקיים איפיון משותף עם הזכיין לממשקים בין המערכות לרבות הפקתם של מסמכי האיפיון. אמנם עדיין לא מתקבלים בזמן אך הנושא נמצא בטיפול כל שדרת הניהול של הפרויקט</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">אנחנו בתהליך ליצירת השפה המשותפת דרך אינטגרציה של מטריצות בקרת העקיבות מזמין - זכיין.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">13/07/2021: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>מתקיים תהליך של אפיון מפורט, עדיין יש לאפיין את סביבת האינטגרציה</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">נדרש לייצר תכנית עבודה לשלב הREAL ומיד לאחר מכן תכנית עבודה לשלב הבדיקות
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13/07/2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: יש אישור תקני כ"א ובנתיים נבנה משרד לניהול הפרויקט ופיתוח של מכונת ניהול שמקצרת ומייעלת את תהליכי איסוף הנתונים ועיבודם לתכנית עבודה מפורטית והצגת תמונת המצב, חיזוי, הצפת בעיות וסיכונים</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">בוצע חלקית בשלב ה BP . יש לבצע העמקה בשלב ה REAL.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">13/07/2021: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>אין שינוי שכן אין BP מסודר בנושאי BI</t>
+    </r>
+  </si>
+  <si>
+    <t>אין שינוי</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">תכנית הפרויקט תכיל משימות פרטניות לבניית תסריטי בדיקות שתואמות לדרישות.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13/07/2021:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> אין שינוי</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ניהול השינויים יקבע מה על חשבון מה וניערך בהתאם למה שקריטי לסביבת האינטגרציה
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13/07/2021:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> קיים תהליך של בקרה ומעקב צמוד אחר כל הדרישות המבצעיות ואחר כל הנושאים הפתוחים</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13/07/2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: מתקיים תהליך איפיון מפורט כחלק מתהליך היישום</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">נדרשת מעורבות בכירים גם בצד הלקוח/אמל"ח מול מנה"ר
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13/07/2021</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: הנושא נמצא בטיפול רצוף ומתמיד. נחתם הסכם להארכת העסקת יועצים וגיוס נוספים. השוק כרגע בפער ובחוסר לאור פרויקטים כגון תנובה</t>
+    </r>
+  </si>
+  <si>
+    <t>החלטה לשינוי שיטת העבודה שהייתה נהוגה עד כאן על ידי ראש מנהלת המרה"ס</t>
+  </si>
+  <si>
+    <t>ראש מנהלת</t>
+  </si>
+  <si>
+    <t>נחתם הסכם להארכת העסקת יועצים וגיוס נוספים. 
+ השוק כרגע בפער ובחוסר לאור פרויקטים אזרחיים כגון תנובה</t>
+  </si>
+  <si>
+    <t>הוקם מנגנון אסקלציה אד-הוק בראשות רע"ן מע"מ לוגיסטיות. במידה וישנה התנגשות עם מסמכי המכרז עולה לדיון משותף עם ראש מנהלת המרה"ס</t>
+  </si>
+  <si>
+    <t>קיים החשש ליצירה של תמונת מצב זמינה ואינטגרטיבית בסביבת עבודה היברדית: מערכת זכיין חדשה ביחד עם המערכת הקיימת</t>
+  </si>
+  <si>
+    <t>פער באיכות הבדיקות בסביבת האינטגרציה ברמה גבוהה, 35% כישלון, בתהליכי הליבה</t>
+  </si>
+  <si>
+    <t>1. עיכוב במועד העליה לאויר ומוכנות למועד האינטגרציה עם הזכיין
+2. שגיאות וטעויות במידע ידרשו תיקונים ויגרמו אי ודאות במהלך האינטגרציה
+3. אבדן אמון באמינות המערכת</t>
+  </si>
+  <si>
+    <t>במסגרת הBP נותחו ההסבות, מספר ההסבות שזוהו עד כה הן מינימאליות - יש לבצע לבצע העמקה בנושא, מוקדם ככל הניתן, במסגרת שלב ה REAL.
+בשלב זה אין עדיין תכנון הסבות. פגישת תכנון מתוכננת ל-15/08/2021</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">13/07/2021: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>אין שינוי
+התנעת תהליך עם שיר כהן ויורם פירסט לגיבוש ראשוני של עקרונות תפיסת הדרכה הטמעה בציר הסאפ.</t>
+    </r>
+  </si>
+  <si>
+    <t>תהליך להתקשרות עם חברת בדיקות חיצונית</t>
+  </si>
+  <si>
+    <t>פגיעה אפשרית בלו"ז מאחר וקיצרו את משך האינטגרציה ב-4.5 חדשים</t>
+  </si>
+  <si>
+    <t>אי עמידה בלו"ז המקורי</t>
+  </si>
+  <si>
+    <t>אי עמידה במחויבות צה"ל למשרד הבטחון</t>
   </si>
 </sst>
 </file>
@@ -3028,7 +3280,7 @@
     <xf numFmtId="164" fontId="34" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3492,9 +3744,6 @@
     <xf numFmtId="14" fontId="30" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3612,6 +3861,21 @@
     <xf numFmtId="0" fontId="27" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
@@ -3621,7 +3885,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="63">
     <dxf>
       <font>
         <b val="0"/>
@@ -3991,6 +4255,50 @@
           <bgColor theme="7" tint="0.59993285927915285"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF007A00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE60000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4954,8 +5262,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4276725" y="476250"/>
-          <a:ext cx="4200525" cy="3057525"/>
+          <a:off x="3781425" y="495300"/>
+          <a:ext cx="3686175" cy="3190875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5044,8 +5352,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6572250" y="771525"/>
-          <a:ext cx="4200525" cy="3152775"/>
+          <a:off x="5886450" y="800100"/>
+          <a:ext cx="3733800" cy="3181350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5058,9 +5366,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aspose" refreshedDate="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aspose" refreshedDate="0" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="43" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:Q44" sheet="רשימת סיכונים"/>
+    <worksheetSource ref="A1:Q45" sheet="רשימת סיכונים"/>
   </cacheSource>
   <cacheFields count="17">
     <cacheField name="#" numFmtId="0">
@@ -5137,9 +5445,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aspose" refreshedDate="0" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="41" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aspose" refreshedDate="0" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="41" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:P42" sheet="רשימת סיכונים"/>
+    <worksheetSource ref="A1:P43" sheet="רשימת סיכונים"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="#" numFmtId="0">
@@ -5200,9 +5508,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aspose" refreshedDate="0" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="41" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aspose" refreshedDate="0" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="41" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G42" sheet="רשימת סיכונים"/>
+    <worksheetSource ref="A1:G43" sheet="רשימת סיכונים"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="#" numFmtId="0">
@@ -7175,7 +7483,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0"/>
@@ -7288,7 +7596,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="pivottable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="סבירות" colHeaderCaption="חומרה">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="pivottable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="סבירות" colHeaderCaption="חומרה">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField dataField="1" showAll="0"/>
@@ -7362,7 +7670,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="pivottable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="pivottable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="ערכים" updatedVersion="6" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" showAll="0"/>
@@ -7685,35 +7993,35 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" style="134" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="134" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="134" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="134" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="134" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B1" s="133" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C1" s="133" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D1" s="133" t="s">
         <v>304</v>
       </c>
       <c r="E1" s="133" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F1" s="133" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="G1" s="133" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="H1" s="132"/>
     </row>
@@ -7777,13 +8085,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="136" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C7" s="136" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D7" s="136" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E7" s="137">
         <v>43914</v>
@@ -7796,13 +8104,13 @@
         <v>8</v>
       </c>
       <c r="B8" s="136" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C8" s="136" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D8" s="136" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E8" s="137"/>
       <c r="F8" s="135"/>
@@ -7813,13 +8121,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="136" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C9" s="136">
         <v>2</v>
       </c>
       <c r="D9" s="136" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E9" s="137">
         <v>43914</v>
@@ -7832,13 +8140,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="136" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C10" s="136">
         <v>9</v>
       </c>
       <c r="D10" s="136" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E10" s="137">
         <v>43914</v>
@@ -7851,13 +8159,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="136" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C11" s="136">
         <v>10</v>
       </c>
       <c r="D11" s="136" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E11" s="137">
         <v>43914</v>
@@ -7870,13 +8178,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="136" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C12" s="136">
         <v>10</v>
       </c>
       <c r="D12" s="136" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E12" s="137">
         <v>43941</v>
@@ -7889,13 +8197,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="136" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C13" s="136" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D13" s="136" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E13" s="137">
         <v>43893</v>
@@ -7908,13 +8216,13 @@
         <v>2</v>
       </c>
       <c r="B14" s="136" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C14" s="136" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D14" s="136" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E14" s="137">
         <v>43894</v>
@@ -7927,19 +8235,19 @@
         <v>1</v>
       </c>
       <c r="B15" s="146" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C15" s="142" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D15" s="142" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="E15" s="143">
         <v>43894</v>
       </c>
       <c r="F15" s="144" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G15" s="145">
         <v>43899</v>
@@ -8112,14 +8420,14 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="107" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="B3" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="202">
+      <c r="A4" s="201">
         <v>3</v>
       </c>
       <c r="B4" s="108">
@@ -8127,7 +8435,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="203">
+      <c r="A5" s="202">
         <v>2</v>
       </c>
       <c r="B5" s="108">
@@ -8135,7 +8443,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="203">
+      <c r="A6" s="202">
         <v>3</v>
       </c>
       <c r="B6" s="108">
@@ -8143,7 +8451,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="203">
+      <c r="A7" s="202">
         <v>4</v>
       </c>
       <c r="B7" s="108">
@@ -8151,7 +8459,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="202">
+      <c r="A8" s="201">
         <v>4</v>
       </c>
       <c r="B8" s="108">
@@ -8159,7 +8467,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="203">
+      <c r="A9" s="202">
         <v>3</v>
       </c>
       <c r="B9" s="108">
@@ -8167,7 +8475,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="203">
+      <c r="A10" s="202">
         <v>4</v>
       </c>
       <c r="B10" s="108">
@@ -8175,7 +8483,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="203">
+      <c r="A11" s="202">
         <v>5</v>
       </c>
       <c r="B11" s="108">
@@ -8183,7 +8491,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="202">
+      <c r="A12" s="201">
         <v>5</v>
       </c>
       <c r="B12" s="108">
@@ -8191,7 +8499,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="203">
+      <c r="A13" s="202">
         <v>2</v>
       </c>
       <c r="B13" s="108">
@@ -8199,7 +8507,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="203">
+      <c r="A14" s="202">
         <v>3</v>
       </c>
       <c r="B14" s="108">
@@ -8207,7 +8515,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="203">
+      <c r="A15" s="202">
         <v>4</v>
       </c>
       <c r="B15" s="108">
@@ -8215,7 +8523,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="203">
+      <c r="A16" s="202">
         <v>5</v>
       </c>
       <c r="B16" s="108">
@@ -8223,7 +8531,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="202">
+      <c r="A17" s="201">
         <v>1</v>
       </c>
       <c r="B17" s="108">
@@ -8231,7 +8539,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="203">
+      <c r="A18" s="202">
         <v>1</v>
       </c>
       <c r="B18" s="108">
@@ -8239,8 +8547,8 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="202" t="s">
-        <v>588</v>
+      <c r="A19" s="201" t="s">
+        <v>572</v>
       </c>
       <c r="B19" s="108">
         <v>43</v>
@@ -8257,34 +8565,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q319"/>
+  <dimension ref="A1:Q320"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="M2:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" style="97" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="99" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="97" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="99" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="97" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" style="105" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="98" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="105" customWidth="1"/>
+    <col min="2" max="2" width="9" style="99" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="97" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="99" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="97" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="105" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" style="98" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" style="105" customWidth="1"/>
     <col min="9" max="9" width="11" style="97" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="97" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="97" customWidth="1"/>
     <col min="11" max="11" width="8.1640625" style="97" customWidth="1"/>
     <col min="12" max="12" width="9" style="97" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="98" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="97" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" style="104" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="97" customWidth="1"/>
-    <col min="17" max="17" width="20.33203125" style="189" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="98" customWidth="1"/>
+    <col min="14" max="14" width="20.5" style="97" customWidth="1"/>
+    <col min="15" max="15" width="20.5" style="104" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="97" customWidth="1"/>
+    <col min="17" max="17" width="33.1640625" style="188" customWidth="1"/>
     <col min="18" max="16384" width="9" style="97"/>
   </cols>
   <sheetData>
@@ -8293,78 +8601,78 @@
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
+        <v>529</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>531</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>532</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>533</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>534</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>535</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="J1" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="K1" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="L1" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="M1" s="60" t="s">
         <v>540</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="N1" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="O1" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="Q1" s="198" t="s">
         <v>544</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>546</v>
-      </c>
-      <c r="M1" s="60" t="s">
-        <v>547</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q1" s="199" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="15" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A2" s="174">
+    </row>
+    <row r="2" spans="1:17" s="15" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A2" s="173">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2" s="175" t="s">
-        <v>514</v>
-      </c>
-      <c r="C2" s="175" t="s">
-        <v>518</v>
-      </c>
-      <c r="D2" s="175" t="s">
+      <c r="B2" s="174" t="s">
+        <v>509</v>
+      </c>
+      <c r="C2" s="174" t="s">
+        <v>513</v>
+      </c>
+      <c r="D2" s="174" t="s">
         <v>267</v>
       </c>
-      <c r="E2" s="175" t="s">
+      <c r="E2" s="174" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="176" t="s">
-        <v>519</v>
-      </c>
-      <c r="G2" s="177" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="176" t="s">
-        <v>534</v>
+      <c r="F2" s="175" t="s">
+        <v>603</v>
+      </c>
+      <c r="G2" s="176" t="s">
+        <v>604</v>
+      </c>
+      <c r="H2" s="175" t="s">
+        <v>605</v>
       </c>
       <c r="I2" s="155">
         <v>5</v>
@@ -8372,865 +8680,864 @@
       <c r="J2" s="155">
         <v>5</v>
       </c>
-      <c r="K2" s="178">
+      <c r="K2" s="177">
         <f>IF(J2*I2=0,"",J2*I2)</f>
         <v>25</v>
       </c>
       <c r="L2" s="156"/>
-      <c r="M2" s="153" t="s">
-        <v>533</v>
-      </c>
+      <c r="M2" s="153"/>
       <c r="N2" s="153"/>
-      <c r="O2" s="157" t="s">
-        <v>429</v>
-      </c>
-      <c r="P2" s="154" t="s">
+      <c r="O2" s="157"/>
+      <c r="P2" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="187" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="15" customFormat="1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A3" s="166">
+      <c r="Q2" s="186"/>
+    </row>
+    <row r="3" spans="1:17" s="15" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="173">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="174" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" s="174" t="s">
+        <v>513</v>
+      </c>
+      <c r="D3" s="174" t="s">
+        <v>267</v>
+      </c>
+      <c r="E3" s="174" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="175" t="s">
+        <v>514</v>
+      </c>
+      <c r="G3" s="176" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="175" t="s">
+        <v>527</v>
+      </c>
+      <c r="I3" s="155">
+        <v>1</v>
+      </c>
+      <c r="J3" s="155">
+        <v>1</v>
+      </c>
+      <c r="K3" s="177">
+        <f>IF(J3*I3=0,"",J3*I3)</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="156"/>
+      <c r="M3" s="153" t="s">
+        <v>526</v>
+      </c>
+      <c r="N3" s="153"/>
+      <c r="O3" s="157" t="s">
+        <v>426</v>
+      </c>
+      <c r="P3" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="186" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="15" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A4" s="166">
         <v>6.1</v>
       </c>
-      <c r="B3" s="161" t="s">
-        <v>517</v>
-      </c>
-      <c r="C3" s="161" t="s">
+      <c r="B4" s="161" t="s">
+        <v>512</v>
+      </c>
+      <c r="C4" s="161" t="s">
         <v>322</v>
       </c>
-      <c r="D3" s="161" t="s">
+      <c r="D4" s="161" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="161" t="s">
+      <c r="E4" s="161" t="s">
+        <v>518</v>
+      </c>
+      <c r="F4" s="160" t="s">
+        <v>521</v>
+      </c>
+      <c r="G4" s="160" t="s">
+        <v>520</v>
+      </c>
+      <c r="H4" s="160" t="s">
+        <v>519</v>
+      </c>
+      <c r="I4" s="164">
+        <v>1</v>
+      </c>
+      <c r="J4" s="164">
+        <v>1</v>
+      </c>
+      <c r="K4" s="177">
+        <f>I4*J4</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="156"/>
+      <c r="M4" s="160" t="s">
+        <v>570</v>
+      </c>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="213"/>
+      <c r="Q4" s="186" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="15" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A5" s="173">
+        <v>1.2</v>
+      </c>
+      <c r="B5" s="174" t="s">
+        <v>511</v>
+      </c>
+      <c r="C5" s="174" t="s">
+        <v>513</v>
+      </c>
+      <c r="D5" s="174" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="174" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="175" t="s">
         <v>523</v>
       </c>
-      <c r="F3" s="160" t="s">
-        <v>526</v>
-      </c>
-      <c r="G3" s="160" t="s">
-        <v>525</v>
-      </c>
-      <c r="H3" s="160" t="s">
+      <c r="G5" s="176" t="s">
         <v>524</v>
       </c>
-      <c r="I3" s="164">
-        <v>5</v>
-      </c>
-      <c r="J3" s="164">
-        <v>5</v>
-      </c>
-      <c r="K3" s="178">
-        <v>25</v>
-      </c>
-      <c r="L3" s="156"/>
-      <c r="M3" s="160" t="s">
-        <v>585</v>
-      </c>
-      <c r="N3" s="160"/>
-      <c r="O3" s="160"/>
-      <c r="P3" s="161"/>
-      <c r="Q3" s="187" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="15" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A4" s="174">
-        <v>1.2</v>
-      </c>
-      <c r="B4" s="175" t="s">
-        <v>516</v>
-      </c>
-      <c r="C4" s="175" t="s">
-        <v>518</v>
-      </c>
-      <c r="D4" s="175" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="175" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="176" t="s">
-        <v>529</v>
-      </c>
-      <c r="G4" s="177" t="s">
-        <v>530</v>
-      </c>
-      <c r="H4" s="176" t="s">
-        <v>527</v>
-      </c>
-      <c r="I4" s="155">
-        <v>4</v>
-      </c>
-      <c r="J4" s="155">
-        <v>5</v>
-      </c>
-      <c r="K4" s="178">
-        <v>20</v>
-      </c>
-      <c r="L4" s="159"/>
-      <c r="M4" s="153" t="s">
-        <v>531</v>
-      </c>
-      <c r="N4" s="153"/>
-      <c r="O4" s="157"/>
-      <c r="P4" s="154" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="187" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="183" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A5" s="151">
-        <v>5</v>
-      </c>
-      <c r="B5" s="154" t="s">
-        <v>515</v>
-      </c>
-      <c r="C5" s="154" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="154" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="153" t="s">
-        <v>495</v>
-      </c>
-      <c r="F5" s="153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="153" t="s">
-        <v>463</v>
-      </c>
-      <c r="H5" s="153" t="s">
-        <v>343</v>
+      <c r="H5" s="175" t="s">
+        <v>522</v>
       </c>
       <c r="I5" s="155">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J5" s="155">
-        <v>4</v>
-      </c>
-      <c r="K5" s="178">
-        <f t="shared" ref="K5:K36" si="0">IF(J5*I5=0,"",J5*I5)</f>
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="K5" s="177">
+        <f>I5*J5</f>
+        <v>1</v>
       </c>
       <c r="L5" s="159"/>
       <c r="M5" s="153" t="s">
-        <v>591</v>
-      </c>
-      <c r="N5" s="153" t="s">
+        <v>525</v>
+      </c>
+      <c r="N5" s="153"/>
+      <c r="O5" s="157"/>
+      <c r="P5" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="186" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="182" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A6" s="151">
+        <v>5</v>
+      </c>
+      <c r="B6" s="154" t="s">
+        <v>510</v>
+      </c>
+      <c r="C6" s="154" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="154" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="153" t="s">
+        <v>490</v>
+      </c>
+      <c r="F6" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="153" t="s">
+        <v>458</v>
+      </c>
+      <c r="H6" s="153" t="s">
+        <v>342</v>
+      </c>
+      <c r="I6" s="155">
+        <v>1</v>
+      </c>
+      <c r="J6" s="155">
+        <v>1</v>
+      </c>
+      <c r="K6" s="177">
+        <f t="shared" ref="K6:K37" si="0">IF(J6*I6=0,"",J6*I6)</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="159"/>
+      <c r="M6" s="153" t="s">
+        <v>575</v>
+      </c>
+      <c r="N6" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="153" t="s">
+      <c r="O6" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="P5" s="154" t="s">
+      <c r="P6" s="163" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="188"/>
-    </row>
-    <row r="6" spans="1:17" s="183" customFormat="1" ht="289" x14ac:dyDescent="0.2">
-      <c r="A6" s="166">
-        <v>6</v>
-      </c>
-      <c r="B6" s="161" t="s">
-        <v>515</v>
-      </c>
-      <c r="C6" s="161" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6" s="161" t="s">
-        <v>495</v>
-      </c>
-      <c r="F6" s="160" t="s">
-        <v>335</v>
-      </c>
-      <c r="G6" s="160" t="s">
-        <v>336</v>
-      </c>
-      <c r="H6" s="160" t="s">
-        <v>496</v>
-      </c>
-      <c r="I6" s="164">
-        <v>5</v>
-      </c>
-      <c r="J6" s="164">
-        <v>4</v>
-      </c>
-      <c r="K6" s="178">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L6" s="159"/>
-      <c r="M6" s="160" t="s">
-        <v>590</v>
-      </c>
-      <c r="N6" s="160" t="s">
-        <v>337</v>
-      </c>
-      <c r="O6" s="160" t="s">
-        <v>10</v>
-      </c>
-      <c r="P6" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="187" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="Q6" s="186" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="182" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="158">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B7" s="161" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C7" s="161" t="s">
         <v>183</v>
       </c>
       <c r="D7" s="161" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="160" t="s">
-        <v>368</v>
-      </c>
-      <c r="F7" s="160" t="s">
-        <v>443</v>
-      </c>
-      <c r="G7" s="160" t="s">
-        <v>444</v>
-      </c>
-      <c r="H7" s="160" t="s">
-        <v>369</v>
-      </c>
-      <c r="I7" s="164">
+        <v>151</v>
+      </c>
+      <c r="E7" s="206" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="162" t="s">
+        <v>576</v>
+      </c>
+      <c r="G7" s="162" t="s">
+        <v>577</v>
+      </c>
+      <c r="H7" s="162" t="s">
+        <v>578</v>
+      </c>
+      <c r="I7" s="183">
+        <v>4</v>
+      </c>
+      <c r="J7" s="183">
         <v>5</v>
       </c>
-      <c r="J7" s="164">
-        <v>4</v>
-      </c>
-      <c r="K7" s="198">
-        <f t="shared" si="0"/>
+      <c r="K7" s="177">
+        <f t="shared" ref="K7:K34" si="1">IF(J7*I7=0,"",J7*I7)</f>
         <v>20</v>
       </c>
-      <c r="L7" s="156"/>
+      <c r="L7" s="181"/>
       <c r="M7" s="160" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="N7" s="160" t="s">
-        <v>445</v>
+        <v>580</v>
       </c>
       <c r="O7" s="160" t="s">
-        <v>446</v>
-      </c>
-      <c r="P7" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="187" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="183" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+      <c r="P7" s="213" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q7" s="186" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A8" s="158">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B8" s="161" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C8" s="161" t="s">
         <v>183</v>
       </c>
       <c r="D8" s="161" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="160" t="s">
+        <v>367</v>
+      </c>
+      <c r="F8" s="160" t="s">
+        <v>438</v>
+      </c>
+      <c r="G8" s="160" t="s">
+        <v>439</v>
+      </c>
+      <c r="H8" s="160" t="s">
+        <v>368</v>
+      </c>
+      <c r="I8" s="164">
+        <v>3</v>
+      </c>
+      <c r="J8" s="164">
+        <v>2</v>
+      </c>
+      <c r="K8" s="197">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L8" s="156"/>
+      <c r="M8" s="160" t="s">
+        <v>562</v>
+      </c>
+      <c r="N8" s="160" t="s">
+        <v>440</v>
+      </c>
+      <c r="O8" s="160" t="s">
+        <v>441</v>
+      </c>
+      <c r="P8" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="186" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="182" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="158">
+        <v>16</v>
+      </c>
+      <c r="B9" s="160" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" s="160" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="160" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="207" t="s">
-        <v>151</v>
-      </c>
-      <c r="F8" s="162" t="s">
-        <v>592</v>
-      </c>
-      <c r="G8" s="162" t="s">
-        <v>593</v>
-      </c>
-      <c r="H8" s="162" t="s">
-        <v>594</v>
-      </c>
-      <c r="I8" s="184">
+      <c r="E9" s="160" t="s">
+        <v>217</v>
+      </c>
+      <c r="F9" s="160" t="s">
+        <v>436</v>
+      </c>
+      <c r="G9" s="160" t="s">
+        <v>437</v>
+      </c>
+      <c r="H9" s="160" t="s">
+        <v>343</v>
+      </c>
+      <c r="I9" s="164">
         <v>5</v>
-      </c>
-      <c r="J8" s="184">
-        <v>4</v>
-      </c>
-      <c r="K8" s="178">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L8" s="196"/>
-      <c r="M8" s="160" t="s">
-        <v>595</v>
-      </c>
-      <c r="N8" s="160" t="s">
-        <v>597</v>
-      </c>
-      <c r="O8" s="160" t="s">
-        <v>429</v>
-      </c>
-      <c r="P8" s="161" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q8" s="187" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="2" customFormat="1" ht="238" x14ac:dyDescent="0.2">
-      <c r="A9" s="158">
-        <v>22</v>
-      </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="161" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="160" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="160" t="s">
-        <v>338</v>
-      </c>
-      <c r="G9" s="160" t="s">
-        <v>200</v>
-      </c>
-      <c r="H9" s="160" t="s">
-        <v>202</v>
-      </c>
-      <c r="I9" s="164">
-        <v>4</v>
       </c>
       <c r="J9" s="164">
         <v>4</v>
       </c>
-      <c r="K9" s="190">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="K9" s="189">
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="L9" s="156"/>
       <c r="M9" s="160" t="s">
-        <v>327</v>
-      </c>
-      <c r="N9" s="160" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="160" t="s">
-        <v>423</v>
-      </c>
-      <c r="P9" s="161" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q9" s="187" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A10" s="158">
-        <v>16</v>
-      </c>
-      <c r="B10" s="160" t="s">
-        <v>517</v>
-      </c>
-      <c r="C10" s="160" t="s">
+        <v>593</v>
+      </c>
+      <c r="N9" s="160"/>
+      <c r="O9" s="160"/>
+      <c r="P9" s="213" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q9" s="212" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="151">
+        <v>35</v>
+      </c>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="160" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="160" t="s">
-        <v>217</v>
-      </c>
-      <c r="F10" s="160" t="s">
-        <v>439</v>
-      </c>
-      <c r="G10" s="160" t="s">
-        <v>440</v>
-      </c>
-      <c r="H10" s="160" t="s">
-        <v>344</v>
-      </c>
-      <c r="I10" s="164">
-        <v>5</v>
-      </c>
-      <c r="J10" s="164">
-        <v>3</v>
-      </c>
-      <c r="K10" s="190">
-        <f t="shared" si="0"/>
-        <v>15</v>
+      <c r="D10" s="154" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="153" t="s">
+        <v>357</v>
+      </c>
+      <c r="F10" s="153" t="s">
+        <v>355</v>
+      </c>
+      <c r="G10" s="153" t="s">
+        <v>356</v>
+      </c>
+      <c r="H10" s="153" t="s">
+        <v>358</v>
+      </c>
+      <c r="I10" s="155">
+        <v>1</v>
+      </c>
+      <c r="J10" s="155">
+        <v>1</v>
+      </c>
+      <c r="K10" s="189">
+        <v>1</v>
       </c>
       <c r="L10" s="156"/>
-      <c r="M10" s="160" t="s">
-        <v>573</v>
-      </c>
-      <c r="N10" s="160" t="s">
-        <v>441</v>
-      </c>
-      <c r="O10" s="160" t="s">
-        <v>442</v>
-      </c>
-      <c r="P10" s="161" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="188"/>
-    </row>
-    <row r="11" spans="1:17" s="2" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="M10" s="154"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="163"/>
+      <c r="Q10" s="185" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="2" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A11" s="158">
-        <v>4</v>
-      </c>
-      <c r="B11" s="161" t="s">
-        <v>514</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B11" s="161"/>
       <c r="C11" s="161" t="s">
-        <v>332</v>
+        <v>214</v>
       </c>
       <c r="D11" s="161" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="E11" s="160" t="s">
-        <v>372</v>
+        <v>178</v>
       </c>
       <c r="F11" s="160" t="s">
-        <v>493</v>
+        <v>597</v>
       </c>
       <c r="G11" s="160" t="s">
-        <v>494</v>
+        <v>200</v>
       </c>
       <c r="H11" s="160" t="s">
-        <v>373</v>
+        <v>202</v>
       </c>
       <c r="I11" s="164">
         <v>4</v>
       </c>
       <c r="J11" s="164">
-        <v>3</v>
-      </c>
-      <c r="K11" s="185">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="K11" s="189">
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="L11" s="156"/>
       <c r="M11" s="160" t="s">
-        <v>432</v>
+        <v>327</v>
       </c>
       <c r="N11" s="160" t="s">
-        <v>433</v>
-      </c>
-      <c r="O11" s="165" t="s">
-        <v>434</v>
-      </c>
-      <c r="P11" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="160" t="s">
+        <v>598</v>
+      </c>
+      <c r="P11" s="213" t="s">
         <v>205</v>
       </c>
-      <c r="Q11" s="187" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.2">
-      <c r="A12" s="151">
+      <c r="Q11" s="186" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A12" s="158">
+        <v>4</v>
+      </c>
+      <c r="B12" s="161" t="s">
+        <v>509</v>
+      </c>
+      <c r="C12" s="161" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" s="161" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="160" t="s">
+        <v>371</v>
+      </c>
+      <c r="F12" s="160" t="s">
+        <v>488</v>
+      </c>
+      <c r="G12" s="160" t="s">
+        <v>489</v>
+      </c>
+      <c r="H12" s="160" t="s">
+        <v>599</v>
+      </c>
+      <c r="I12" s="164">
+        <v>4</v>
+      </c>
+      <c r="J12" s="164">
+        <v>4</v>
+      </c>
+      <c r="K12" s="184">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="L12" s="156"/>
+      <c r="M12" s="160" t="s">
+        <v>429</v>
+      </c>
+      <c r="N12" s="160" t="s">
+        <v>430</v>
+      </c>
+      <c r="O12" s="165" t="s">
+        <v>431</v>
+      </c>
+      <c r="P12" s="213" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q12" s="185" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" ht="187" x14ac:dyDescent="0.2">
+      <c r="A13" s="151">
         <v>7</v>
       </c>
-      <c r="B12" s="153" t="s">
-        <v>517</v>
-      </c>
-      <c r="C12" s="153" t="s">
+      <c r="B13" s="153" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" s="153" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="153" t="s">
+      <c r="D13" s="153" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="153" t="s">
-        <v>355</v>
-      </c>
-      <c r="F12" s="153" t="s">
+      <c r="E13" s="153" t="s">
+        <v>354</v>
+      </c>
+      <c r="F13" s="153" t="s">
+        <v>369</v>
+      </c>
+      <c r="G13" s="153" t="s">
         <v>370</v>
       </c>
-      <c r="G12" s="153" t="s">
-        <v>371</v>
-      </c>
-      <c r="H12" s="153" t="s">
-        <v>366</v>
-      </c>
-      <c r="I12" s="155">
+      <c r="H13" s="153" t="s">
+        <v>365</v>
+      </c>
+      <c r="I13" s="155">
         <v>4</v>
       </c>
-      <c r="J12" s="155">
-        <v>3</v>
-      </c>
-      <c r="K12" s="190">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L12" s="156"/>
-      <c r="M12" s="153" t="s">
-        <v>562</v>
-      </c>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="154" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q12" s="188"/>
-    </row>
-    <row r="13" spans="1:17" s="2" customFormat="1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A13" s="158">
+      <c r="J13" s="155">
+        <v>4</v>
+      </c>
+      <c r="K13" s="189">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="L13" s="156"/>
+      <c r="M13" s="153" t="s">
+        <v>552</v>
+      </c>
+      <c r="N13" s="153"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="163" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q13" s="185" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A14" s="158">
         <v>8</v>
       </c>
-      <c r="B13" s="161" t="s">
-        <v>517</v>
-      </c>
-      <c r="C13" s="161" t="s">
+      <c r="B14" s="161" t="s">
+        <v>512</v>
+      </c>
+      <c r="C14" s="161" t="s">
         <v>214</v>
       </c>
-      <c r="D13" s="161" t="s">
+      <c r="D14" s="161" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="160" t="s">
+      <c r="E14" s="160" t="s">
         <v>235</v>
       </c>
-      <c r="F13" s="160" t="s">
+      <c r="F14" s="160" t="s">
         <v>236</v>
       </c>
-      <c r="G13" s="160" t="s">
+      <c r="G14" s="160" t="s">
+        <v>348</v>
+      </c>
+      <c r="H14" s="160" t="s">
         <v>349</v>
       </c>
-      <c r="H13" s="160" t="s">
+      <c r="I14" s="164">
+        <v>4</v>
+      </c>
+      <c r="J14" s="164">
+        <v>4</v>
+      </c>
+      <c r="K14" s="189">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="L14" s="156"/>
+      <c r="M14" s="160" t="s">
+        <v>602</v>
+      </c>
+      <c r="N14" s="160"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="186" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A15" s="151">
+        <v>11</v>
+      </c>
+      <c r="B15" s="153" t="s">
+        <v>509</v>
+      </c>
+      <c r="C15" s="153" t="s">
+        <v>450</v>
+      </c>
+      <c r="D15" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="E15" s="153" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="153" t="s">
+        <v>496</v>
+      </c>
+      <c r="G15" s="153" t="s">
+        <v>497</v>
+      </c>
+      <c r="H15" s="153" t="s">
         <v>350</v>
       </c>
-      <c r="I13" s="164">
-        <v>3</v>
-      </c>
-      <c r="J13" s="164">
-        <v>4</v>
-      </c>
-      <c r="K13" s="190">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L13" s="156"/>
-      <c r="M13" s="160" t="s">
-        <v>564</v>
-      </c>
-      <c r="N13" s="160"/>
-      <c r="O13" s="160"/>
-      <c r="P13" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="187" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A14" s="151">
-        <v>11</v>
-      </c>
-      <c r="B14" s="153" t="s">
-        <v>514</v>
-      </c>
-      <c r="C14" s="153" t="s">
-        <v>455</v>
-      </c>
-      <c r="D14" s="153" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="153" t="s">
-        <v>217</v>
-      </c>
-      <c r="F14" s="153" t="s">
-        <v>501</v>
-      </c>
-      <c r="G14" s="153" t="s">
-        <v>502</v>
-      </c>
-      <c r="H14" s="153" t="s">
-        <v>351</v>
-      </c>
-      <c r="I14" s="155">
-        <v>4</v>
-      </c>
-      <c r="J14" s="155">
-        <v>3</v>
-      </c>
-      <c r="K14" s="190">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L14" s="156"/>
-      <c r="M14" s="153" t="s">
-        <v>567</v>
-      </c>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="187" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A15" s="151">
-        <v>17</v>
-      </c>
-      <c r="B15" s="154" t="s">
-        <v>514</v>
-      </c>
-      <c r="C15" s="154" t="s">
-        <v>455</v>
-      </c>
-      <c r="D15" s="154" t="s">
-        <v>267</v>
-      </c>
-      <c r="E15" s="153" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="153" t="s">
-        <v>345</v>
-      </c>
-      <c r="G15" s="153" t="s">
-        <v>346</v>
-      </c>
-      <c r="H15" s="153" t="s">
-        <v>347</v>
-      </c>
       <c r="I15" s="155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" s="155">
-        <v>3</v>
-      </c>
-      <c r="K15" s="190">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K15" s="189">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L15" s="156"/>
       <c r="M15" s="153" t="s">
-        <v>574</v>
-      </c>
-      <c r="N15" s="153" t="s">
-        <v>15</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="N15" s="153"/>
       <c r="O15" s="153"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="188"/>
-    </row>
-    <row r="16" spans="1:17" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="P15" s="163"/>
+      <c r="Q15" s="186" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.2">
       <c r="A16" s="151">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B16" s="154" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C16" s="154" t="s">
-        <v>183</v>
+        <v>450</v>
       </c>
       <c r="D16" s="154" t="s">
         <v>267</v>
       </c>
       <c r="E16" s="153" t="s">
-        <v>418</v>
+        <v>28</v>
       </c>
       <c r="F16" s="153" t="s">
-        <v>419</v>
+        <v>344</v>
       </c>
       <c r="G16" s="153" t="s">
-        <v>448</v>
+        <v>345</v>
       </c>
       <c r="H16" s="153" t="s">
-        <v>447</v>
+        <v>346</v>
       </c>
       <c r="I16" s="155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J16" s="155">
-        <v>3</v>
-      </c>
-      <c r="K16" s="190">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="K16" s="189">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L16" s="156"/>
       <c r="M16" s="153" t="s">
-        <v>449</v>
+        <v>561</v>
       </c>
       <c r="N16" s="153" t="s">
-        <v>450</v>
-      </c>
-      <c r="O16" s="153" t="s">
-        <v>451</v>
-      </c>
-      <c r="P16" s="154" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="153"/>
+      <c r="P16" s="163"/>
+      <c r="Q16" s="186" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A17" s="151">
+        <v>21</v>
+      </c>
+      <c r="B17" s="154" t="s">
+        <v>512</v>
+      </c>
+      <c r="C17" s="154" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="154" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="153" t="s">
+        <v>416</v>
+      </c>
+      <c r="F17" s="153" t="s">
+        <v>417</v>
+      </c>
+      <c r="G17" s="153" t="s">
+        <v>443</v>
+      </c>
+      <c r="H17" s="153" t="s">
+        <v>442</v>
+      </c>
+      <c r="I17" s="155">
+        <v>1</v>
+      </c>
+      <c r="J17" s="155">
+        <v>1</v>
+      </c>
+      <c r="K17" s="189">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="156"/>
+      <c r="M17" s="153" t="s">
+        <v>444</v>
+      </c>
+      <c r="N17" s="153" t="s">
+        <v>445</v>
+      </c>
+      <c r="O17" s="153" t="s">
+        <v>446</v>
+      </c>
+      <c r="P17" s="163" t="s">
         <v>205</v>
       </c>
-      <c r="Q16" s="187" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A17" s="166">
+      <c r="Q17" s="186" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A18" s="166">
         <v>24</v>
       </c>
-      <c r="B17" s="161"/>
-      <c r="C17" s="161" t="s">
+      <c r="B18" s="161"/>
+      <c r="C18" s="161" t="s">
         <v>214</v>
       </c>
-      <c r="D17" s="161" t="s">
+      <c r="D18" s="161" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="160" t="s">
+      <c r="E18" s="160" t="s">
         <v>217</v>
       </c>
-      <c r="F17" s="160" t="s">
+      <c r="F18" s="160" t="s">
+        <v>363</v>
+      </c>
+      <c r="G18" s="160" t="s">
         <v>364</v>
       </c>
-      <c r="G17" s="160" t="s">
-        <v>365</v>
-      </c>
-      <c r="H17" s="160" t="s">
-        <v>367</v>
-      </c>
-      <c r="I17" s="164">
+      <c r="H18" s="160" t="s">
+        <v>366</v>
+      </c>
+      <c r="I18" s="164">
         <v>4</v>
       </c>
-      <c r="J17" s="164">
+      <c r="J18" s="164">
         <v>3</v>
       </c>
-      <c r="K17" s="190">
-        <f t="shared" si="0"/>
+      <c r="K18" s="189">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L17" s="156"/>
-      <c r="M17" s="160"/>
-      <c r="N17" s="160"/>
-      <c r="O17" s="160"/>
-      <c r="P17" s="161" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q17" s="188"/>
-    </row>
-    <row r="18" spans="1:17" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A18" s="151">
+      <c r="L18" s="156"/>
+      <c r="M18" s="160"/>
+      <c r="N18" s="160"/>
+      <c r="O18" s="160"/>
+      <c r="P18" s="213" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q18" s="187" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A19" s="151">
         <v>27</v>
       </c>
-      <c r="B18" s="154"/>
-      <c r="C18" s="154" t="s">
+      <c r="B19" s="154"/>
+      <c r="C19" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="154" t="s">
+      <c r="D19" s="154" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="153" t="s">
+      <c r="E19" s="153" t="s">
+        <v>387</v>
+      </c>
+      <c r="F19" s="153" t="s">
+        <v>388</v>
+      </c>
+      <c r="G19" s="153" t="s">
         <v>389</v>
       </c>
-      <c r="F18" s="153" t="s">
+      <c r="H19" s="153" t="s">
         <v>390</v>
       </c>
-      <c r="G18" s="153" t="s">
-        <v>391</v>
-      </c>
-      <c r="H18" s="153" t="s">
-        <v>392</v>
-      </c>
-      <c r="I18" s="155">
+      <c r="I19" s="155">
         <v>4</v>
       </c>
-      <c r="J18" s="155">
+      <c r="J19" s="155">
         <v>3</v>
       </c>
-      <c r="K18" s="190">
-        <f t="shared" si="0"/>
+      <c r="K19" s="189">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="L18" s="156"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="154" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q18" s="188"/>
-    </row>
-    <row r="19" spans="1:17" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A19" s="151">
-        <v>19</v>
-      </c>
-      <c r="B19" s="154" t="s">
-        <v>517</v>
-      </c>
-      <c r="C19" s="154" t="s">
-        <v>400</v>
-      </c>
-      <c r="D19" s="154" t="s">
-        <v>185</v>
-      </c>
-      <c r="E19" s="153" t="s">
-        <v>402</v>
-      </c>
-      <c r="F19" s="153" t="s">
-        <v>406</v>
-      </c>
-      <c r="G19" s="153" t="s">
-        <v>407</v>
-      </c>
-      <c r="H19" s="153" t="s">
-        <v>408</v>
-      </c>
-      <c r="I19" s="155">
-        <v>3</v>
-      </c>
-      <c r="J19" s="155">
-        <v>4</v>
-      </c>
-      <c r="K19" s="190">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
       <c r="L19" s="156"/>
-      <c r="M19" s="153" t="s">
-        <v>582</v>
-      </c>
+      <c r="M19" s="153"/>
       <c r="N19" s="153"/>
       <c r="O19" s="153"/>
-      <c r="P19" s="154" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q19" s="188"/>
-    </row>
-    <row r="20" spans="1:17" s="2" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+      <c r="P19" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q19" s="187" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="151">
-        <v>25</v>
-      </c>
-      <c r="B20" s="154"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="154" t="s">
+        <v>512</v>
+      </c>
       <c r="C20" s="154" t="s">
-        <v>214</v>
+        <v>398</v>
       </c>
       <c r="D20" s="154" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="E20" s="153" t="s">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="F20" s="153" t="s">
-        <v>66</v>
+        <v>404</v>
       </c>
       <c r="G20" s="153" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="H20" s="153" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="I20" s="155">
         <v>3</v>
@@ -9238,83 +9545,89 @@
       <c r="J20" s="155">
         <v>4</v>
       </c>
-      <c r="K20" s="190">
-        <f t="shared" si="0"/>
+      <c r="K20" s="189">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L20" s="156"/>
-      <c r="M20" s="153"/>
+      <c r="M20" s="153" t="s">
+        <v>568</v>
+      </c>
       <c r="N20" s="153"/>
       <c r="O20" s="153"/>
-      <c r="P20" s="154" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q20" s="188"/>
-    </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A21" s="158">
+      <c r="P20" s="163" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q20" s="187" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A21" s="151">
+        <v>25</v>
+      </c>
+      <c r="B21" s="154"/>
+      <c r="C21" s="154" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="154" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="153" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="153" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="153" t="s">
+        <v>351</v>
+      </c>
+      <c r="H21" s="153" t="s">
+        <v>372</v>
+      </c>
+      <c r="I21" s="155">
+        <v>3</v>
+      </c>
+      <c r="J21" s="155">
+        <v>4</v>
+      </c>
+      <c r="K21" s="189">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L21" s="156"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="153"/>
+      <c r="O21" s="153"/>
+      <c r="P21" s="163" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q21" s="187" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A22" s="158">
         <v>26</v>
-      </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161" t="s">
-        <v>214</v>
-      </c>
-      <c r="D21" s="161" t="s">
-        <v>267</v>
-      </c>
-      <c r="E21" s="160" t="s">
-        <v>386</v>
-      </c>
-      <c r="F21" s="160" t="s">
-        <v>387</v>
-      </c>
-      <c r="G21" s="160" t="s">
-        <v>584</v>
-      </c>
-      <c r="H21" s="160" t="s">
-        <v>388</v>
-      </c>
-      <c r="I21" s="164">
-        <v>3</v>
-      </c>
-      <c r="J21" s="164">
-        <v>4</v>
-      </c>
-      <c r="K21" s="190">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L21" s="156"/>
-      <c r="M21" s="160"/>
-      <c r="N21" s="160"/>
-      <c r="O21" s="160"/>
-      <c r="P21" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="188"/>
-    </row>
-    <row r="22" spans="1:17" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A22" s="158">
-        <v>28</v>
       </c>
       <c r="B22" s="161"/>
       <c r="C22" s="161" t="s">
         <v>214</v>
       </c>
       <c r="D22" s="161" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="E22" s="160" t="s">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="F22" s="160" t="s">
-        <v>157</v>
+        <v>385</v>
       </c>
       <c r="G22" s="160" t="s">
-        <v>413</v>
+        <v>569</v>
       </c>
       <c r="H22" s="160" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="I22" s="164">
         <v>3</v>
@@ -9322,812 +9635,833 @@
       <c r="J22" s="164">
         <v>4</v>
       </c>
-      <c r="K22" s="190">
-        <f t="shared" si="0"/>
+      <c r="K22" s="189">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="L22" s="156"/>
       <c r="M22" s="160"/>
       <c r="N22" s="160"/>
       <c r="O22" s="160"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="188"/>
-    </row>
-    <row r="23" spans="1:17" s="2" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A23" s="151">
+      <c r="P22" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="187" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A23" s="158">
+        <v>28</v>
+      </c>
+      <c r="B23" s="161"/>
+      <c r="C23" s="161" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="161" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="160" t="s">
+        <v>309</v>
+      </c>
+      <c r="F23" s="160" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="160" t="s">
+        <v>411</v>
+      </c>
+      <c r="H23" s="160" t="s">
+        <v>412</v>
+      </c>
+      <c r="I23" s="164">
+        <v>3</v>
+      </c>
+      <c r="J23" s="164">
+        <v>4</v>
+      </c>
+      <c r="K23" s="189">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L23" s="156"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="213"/>
+      <c r="Q23" s="187" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A24" s="151">
         <v>31</v>
       </c>
-      <c r="B23" s="154"/>
-      <c r="C23" s="154" t="s">
+      <c r="B24" s="154"/>
+      <c r="C24" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="D23" s="154" t="s">
-        <v>341</v>
-      </c>
-      <c r="E23" s="153" t="s">
+      <c r="D24" s="154" t="s">
+        <v>340</v>
+      </c>
+      <c r="E24" s="153" t="s">
         <v>310</v>
       </c>
-      <c r="F23" s="153" t="s">
+      <c r="F24" s="153" t="s">
         <v>314</v>
       </c>
-      <c r="G23" s="153" t="s">
+      <c r="G24" s="153" t="s">
+        <v>407</v>
+      </c>
+      <c r="H24" s="153" t="s">
+        <v>408</v>
+      </c>
+      <c r="I24" s="155">
+        <v>5</v>
+      </c>
+      <c r="J24" s="155">
+        <v>2</v>
+      </c>
+      <c r="K24" s="189">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L24" s="156"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="153"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="163"/>
+      <c r="Q24" s="187" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A25" s="158">
+        <v>32</v>
+      </c>
+      <c r="B25" s="161"/>
+      <c r="C25" s="161" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="161" t="s">
+        <v>340</v>
+      </c>
+      <c r="E25" s="160" t="s">
+        <v>310</v>
+      </c>
+      <c r="F25" s="160" t="s">
+        <v>413</v>
+      </c>
+      <c r="G25" s="160" t="s">
+        <v>414</v>
+      </c>
+      <c r="H25" s="160" t="s">
+        <v>415</v>
+      </c>
+      <c r="I25" s="164">
+        <v>5</v>
+      </c>
+      <c r="J25" s="164">
+        <v>2</v>
+      </c>
+      <c r="K25" s="189">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L25" s="156"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="160"/>
+      <c r="O25" s="160"/>
+      <c r="P25" s="213"/>
+      <c r="Q25" s="187" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A26" s="151">
+        <v>33</v>
+      </c>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="D26" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" s="153" t="s">
+        <v>317</v>
+      </c>
+      <c r="F26" s="153" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="153" t="s">
+        <v>419</v>
+      </c>
+      <c r="H26" s="153" t="s">
+        <v>420</v>
+      </c>
+      <c r="I26" s="155">
+        <v>1</v>
+      </c>
+      <c r="J26" s="155">
+        <v>1</v>
+      </c>
+      <c r="K26" s="189">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L26" s="156"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="153"/>
+      <c r="P26" s="163"/>
+      <c r="Q26" s="185" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="2" customFormat="1" ht="238" x14ac:dyDescent="0.2">
+      <c r="A27" s="151">
+        <v>1</v>
+      </c>
+      <c r="B27" s="152" t="s">
+        <v>512</v>
+      </c>
+      <c r="C27" s="152" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="152" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="152" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="153" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="154" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="153" t="s">
+        <v>461</v>
+      </c>
+      <c r="I27" s="155">
+        <v>3</v>
+      </c>
+      <c r="J27" s="155">
+        <v>3</v>
+      </c>
+      <c r="K27" s="184">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L27" s="156"/>
+      <c r="M27" s="153" t="s">
+        <v>453</v>
+      </c>
+      <c r="N27" s="153" t="s">
+        <v>455</v>
+      </c>
+      <c r="O27" s="157" t="s">
+        <v>426</v>
+      </c>
+      <c r="P27" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="185" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A28" s="158">
+        <v>2</v>
+      </c>
+      <c r="B28" s="178" t="s">
+        <v>509</v>
+      </c>
+      <c r="C28" s="178" t="s">
+        <v>450</v>
+      </c>
+      <c r="D28" s="178" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="179" t="s">
+        <v>462</v>
+      </c>
+      <c r="F28" s="180" t="s">
+        <v>463</v>
+      </c>
+      <c r="G28" s="180" t="s">
+        <v>515</v>
+      </c>
+      <c r="H28" s="162" t="s">
+        <v>464</v>
+      </c>
+      <c r="I28" s="183">
+        <v>1</v>
+      </c>
+      <c r="J28" s="183">
+        <v>3</v>
+      </c>
+      <c r="K28" s="184">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L28" s="195"/>
+      <c r="M28" s="160" t="s">
+        <v>545</v>
+      </c>
+      <c r="N28" s="160" t="s">
+        <v>457</v>
+      </c>
+      <c r="O28" s="160" t="s">
+        <v>425</v>
+      </c>
+      <c r="P28" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="186" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A29" s="151">
+        <v>3</v>
+      </c>
+      <c r="B29" s="154" t="s">
+        <v>509</v>
+      </c>
+      <c r="C29" s="154" t="s">
+        <v>451</v>
+      </c>
+      <c r="D29" s="154" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="154" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" s="152" t="s">
+        <v>548</v>
+      </c>
+      <c r="G29" s="154" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="153" t="s">
+        <v>460</v>
+      </c>
+      <c r="I29" s="163">
+        <v>1</v>
+      </c>
+      <c r="J29" s="163">
+        <v>3</v>
+      </c>
+      <c r="K29" s="184">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L29" s="156"/>
+      <c r="M29" s="153" t="s">
+        <v>427</v>
+      </c>
+      <c r="N29" s="153" t="s">
+        <v>428</v>
+      </c>
+      <c r="O29" s="153" t="s">
+        <v>425</v>
+      </c>
+      <c r="P29" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="186" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A30" s="173">
+        <v>3.1</v>
+      </c>
+      <c r="B30" s="174" t="s">
+        <v>509</v>
+      </c>
+      <c r="C30" s="174" t="s">
+        <v>513</v>
+      </c>
+      <c r="D30" s="174" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="174" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="175" t="s">
+        <v>549</v>
+      </c>
+      <c r="G30" s="176" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="175" t="s">
+        <v>516</v>
+      </c>
+      <c r="I30" s="155">
+        <v>1</v>
+      </c>
+      <c r="J30" s="155">
+        <v>3</v>
+      </c>
+      <c r="K30" s="184">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L30" s="156"/>
+      <c r="M30" s="153" t="s">
+        <v>517</v>
+      </c>
+      <c r="N30" s="160"/>
+      <c r="O30" s="160"/>
+      <c r="P30" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="186" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.2">
+      <c r="A31" s="158">
+        <v>10</v>
+      </c>
+      <c r="B31" s="161" t="s">
+        <v>509</v>
+      </c>
+      <c r="C31" s="161" t="s">
+        <v>450</v>
+      </c>
+      <c r="D31" s="161" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="160" t="s">
+        <v>217</v>
+      </c>
+      <c r="F31" s="160" t="s">
+        <v>493</v>
+      </c>
+      <c r="G31" s="160" t="s">
+        <v>495</v>
+      </c>
+      <c r="H31" s="160" t="s">
+        <v>347</v>
+      </c>
+      <c r="I31" s="164">
+        <v>1</v>
+      </c>
+      <c r="J31" s="164">
+        <v>3</v>
+      </c>
+      <c r="K31" s="189">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L31" s="156"/>
+      <c r="M31" s="160" t="s">
+        <v>554</v>
+      </c>
+      <c r="N31" s="160" t="s">
+        <v>422</v>
+      </c>
+      <c r="O31" s="172"/>
+      <c r="P31" s="214"/>
+      <c r="Q31" s="186" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A32" s="158">
+        <v>14</v>
+      </c>
+      <c r="B32" s="161" t="s">
+        <v>512</v>
+      </c>
+      <c r="C32" s="161" t="s">
+        <v>398</v>
+      </c>
+      <c r="D32" s="161" t="s">
+        <v>185</v>
+      </c>
+      <c r="E32" s="160" t="s">
+        <v>305</v>
+      </c>
+      <c r="F32" s="160" t="s">
+        <v>401</v>
+      </c>
+      <c r="G32" s="160" t="s">
         <v>409</v>
       </c>
-      <c r="H23" s="153" t="s">
+      <c r="H32" s="160" t="s">
         <v>410</v>
       </c>
-      <c r="I23" s="155">
-        <v>5</v>
-      </c>
-      <c r="J23" s="155">
-        <v>2</v>
-      </c>
-      <c r="K23" s="190">
-        <f t="shared" si="0"/>
+      <c r="I32" s="164">
+        <v>3</v>
+      </c>
+      <c r="J32" s="164">
+        <v>3</v>
+      </c>
+      <c r="K32" s="189">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L32" s="156"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="165"/>
+      <c r="P32" s="213"/>
+      <c r="Q32" s="186" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A33" s="158">
+        <v>34</v>
+      </c>
+      <c r="B33" s="161"/>
+      <c r="C33" s="161" t="s">
+        <v>451</v>
+      </c>
+      <c r="D33" s="161" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" s="160" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="160" t="s">
+        <v>381</v>
+      </c>
+      <c r="G33" s="160" t="s">
+        <v>382</v>
+      </c>
+      <c r="H33" s="160" t="s">
+        <v>383</v>
+      </c>
+      <c r="I33" s="164">
+        <v>3</v>
+      </c>
+      <c r="J33" s="164">
+        <v>3</v>
+      </c>
+      <c r="K33" s="189">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="L33" s="156"/>
+      <c r="M33" s="160" t="s">
+        <v>432</v>
+      </c>
+      <c r="N33" s="160" t="s">
+        <v>433</v>
+      </c>
+      <c r="O33" s="160" t="s">
+        <v>434</v>
+      </c>
+      <c r="P33" s="213" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q33" s="187"/>
+    </row>
+    <row r="34" spans="1:17" s="2" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+      <c r="A34" s="166">
+        <v>6</v>
+      </c>
+      <c r="B34" s="161" t="s">
+        <v>510</v>
+      </c>
+      <c r="C34" s="161" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="161" t="s">
+        <v>267</v>
+      </c>
+      <c r="E34" s="161" t="s">
+        <v>490</v>
+      </c>
+      <c r="F34" s="160" t="s">
+        <v>335</v>
+      </c>
+      <c r="G34" s="160" t="s">
+        <v>336</v>
+      </c>
+      <c r="H34" s="160" t="s">
+        <v>491</v>
+      </c>
+      <c r="I34" s="164">
+        <v>4</v>
+      </c>
+      <c r="J34" s="164">
+        <v>3</v>
+      </c>
+      <c r="K34" s="177">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="L34" s="156"/>
+      <c r="M34" s="160" t="s">
+        <v>574</v>
+      </c>
+      <c r="N34" s="160" t="s">
+        <v>337</v>
+      </c>
+      <c r="O34" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="156"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="188"/>
-    </row>
-    <row r="24" spans="1:17" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A24" s="158">
-        <v>32</v>
-      </c>
-      <c r="B24" s="161"/>
-      <c r="C24" s="161" t="s">
+      <c r="P34" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="186" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A35" s="166">
+        <v>36</v>
+      </c>
+      <c r="B35" s="161"/>
+      <c r="C35" s="161" t="s">
         <v>214</v>
       </c>
-      <c r="D24" s="161" t="s">
-        <v>341</v>
-      </c>
-      <c r="E24" s="160" t="s">
-        <v>310</v>
-      </c>
-      <c r="F24" s="160" t="s">
-        <v>415</v>
-      </c>
-      <c r="G24" s="160" t="s">
-        <v>416</v>
-      </c>
-      <c r="H24" s="160" t="s">
-        <v>417</v>
-      </c>
-      <c r="I24" s="164">
-        <v>5</v>
-      </c>
-      <c r="J24" s="164">
-        <v>2</v>
-      </c>
-      <c r="K24" s="190">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L24" s="156"/>
-      <c r="M24" s="160"/>
-      <c r="N24" s="160"/>
-      <c r="O24" s="160"/>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="188"/>
-    </row>
-    <row r="25" spans="1:17" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A25" s="151">
-        <v>33</v>
-      </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="154" t="s">
-        <v>455</v>
-      </c>
-      <c r="D25" s="154" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="153" t="s">
-        <v>317</v>
-      </c>
-      <c r="F25" s="153" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="153" t="s">
-        <v>421</v>
-      </c>
-      <c r="H25" s="153" t="s">
-        <v>422</v>
-      </c>
-      <c r="I25" s="155">
-        <v>5</v>
-      </c>
-      <c r="J25" s="155">
-        <v>2</v>
-      </c>
-      <c r="K25" s="190">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L25" s="156"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="153"/>
-      <c r="P25" s="154"/>
-      <c r="Q25" s="188"/>
-    </row>
-    <row r="26" spans="1:17" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.2">
-      <c r="A26" s="151">
-        <v>1</v>
-      </c>
-      <c r="B26" s="152" t="s">
-        <v>517</v>
-      </c>
-      <c r="C26" s="152" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="152" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" s="152" t="s">
-        <v>151</v>
-      </c>
-      <c r="F26" s="153" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="154" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="153" t="s">
-        <v>466</v>
-      </c>
-      <c r="I26" s="155">
+      <c r="D35" s="161" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="160" t="s">
+        <v>394</v>
+      </c>
+      <c r="F35" s="160" t="s">
+        <v>391</v>
+      </c>
+      <c r="G35" s="160" t="s">
+        <v>392</v>
+      </c>
+      <c r="H35" s="160" t="s">
+        <v>393</v>
+      </c>
+      <c r="I35" s="164">
         <v>3</v>
       </c>
-      <c r="J26" s="155">
+      <c r="J35" s="164">
         <v>3</v>
       </c>
-      <c r="K26" s="185">
+      <c r="K35" s="189">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L26" s="156"/>
-      <c r="M26" s="153" t="s">
-        <v>458</v>
-      </c>
-      <c r="N26" s="153" t="s">
-        <v>460</v>
-      </c>
-      <c r="O26" s="157" t="s">
-        <v>429</v>
-      </c>
-      <c r="P26" s="154" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="186" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="2" customFormat="1" ht="289" x14ac:dyDescent="0.2">
-      <c r="A27" s="158">
-        <v>2</v>
-      </c>
-      <c r="B27" s="179" t="s">
-        <v>514</v>
-      </c>
-      <c r="C27" s="179" t="s">
-        <v>455</v>
-      </c>
-      <c r="D27" s="179" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="180" t="s">
-        <v>467</v>
-      </c>
-      <c r="F27" s="181" t="s">
-        <v>468</v>
-      </c>
-      <c r="G27" s="181" t="s">
-        <v>520</v>
-      </c>
-      <c r="H27" s="162" t="s">
-        <v>469</v>
-      </c>
-      <c r="I27" s="184">
+      <c r="L35" s="156"/>
+      <c r="M35" s="161"/>
+      <c r="N35" s="161"/>
+      <c r="O35" s="161"/>
+      <c r="P35" s="213"/>
+      <c r="Q35" s="187"/>
+    </row>
+    <row r="36" spans="1:17" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A36" s="151">
+        <v>37</v>
+      </c>
+      <c r="B36" s="154"/>
+      <c r="C36" s="154" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" s="154" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="153" t="s">
+        <v>394</v>
+      </c>
+      <c r="F36" s="153" t="s">
+        <v>395</v>
+      </c>
+      <c r="G36" s="153" t="s">
+        <v>396</v>
+      </c>
+      <c r="H36" s="153" t="s">
+        <v>397</v>
+      </c>
+      <c r="I36" s="155">
         <v>3</v>
       </c>
-      <c r="J27" s="184">
+      <c r="J36" s="155">
         <v>3</v>
       </c>
-      <c r="K27" s="185">
+      <c r="K36" s="189">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L27" s="196"/>
-      <c r="M27" s="160" t="s">
-        <v>552</v>
-      </c>
-      <c r="N27" s="160" t="s">
-        <v>462</v>
-      </c>
-      <c r="O27" s="160" t="s">
-        <v>428</v>
-      </c>
-      <c r="P27" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q27" s="187" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A28" s="151">
+      <c r="L36" s="156"/>
+      <c r="M36" s="154"/>
+      <c r="N36" s="154"/>
+      <c r="O36" s="154"/>
+      <c r="P36" s="163"/>
+      <c r="Q36" s="187"/>
+    </row>
+    <row r="37" spans="1:17" s="2" customFormat="1" ht="289" x14ac:dyDescent="0.2">
+      <c r="A37" s="151">
+        <v>9</v>
+      </c>
+      <c r="B37" s="154" t="s">
+        <v>509</v>
+      </c>
+      <c r="C37" s="154" t="s">
+        <v>450</v>
+      </c>
+      <c r="D37" s="154" t="s">
+        <v>267</v>
+      </c>
+      <c r="E37" s="153" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="153" t="s">
+        <v>492</v>
+      </c>
+      <c r="G37" s="153" t="s">
+        <v>494</v>
+      </c>
+      <c r="H37" s="153" t="s">
+        <v>421</v>
+      </c>
+      <c r="I37" s="155">
         <v>3</v>
       </c>
-      <c r="B28" s="154" t="s">
-        <v>514</v>
-      </c>
-      <c r="C28" s="154" t="s">
-        <v>456</v>
-      </c>
-      <c r="D28" s="154" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="154" t="s">
-        <v>228</v>
-      </c>
-      <c r="F28" s="152" t="s">
-        <v>555</v>
-      </c>
-      <c r="G28" s="154" t="s">
-        <v>40</v>
-      </c>
-      <c r="H28" s="153" t="s">
-        <v>465</v>
-      </c>
-      <c r="I28" s="163">
-        <v>3</v>
-      </c>
-      <c r="J28" s="163">
-        <v>3</v>
-      </c>
-      <c r="K28" s="185">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L28" s="156"/>
-      <c r="M28" s="153" t="s">
-        <v>430</v>
-      </c>
-      <c r="N28" s="153" t="s">
-        <v>431</v>
-      </c>
-      <c r="O28" s="153" t="s">
-        <v>428</v>
-      </c>
-      <c r="P28" s="154" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="187" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="2" customFormat="1" ht="170" x14ac:dyDescent="0.2">
-      <c r="A29" s="174">
-        <v>3.1</v>
-      </c>
-      <c r="B29" s="175" t="s">
-        <v>514</v>
-      </c>
-      <c r="C29" s="175" t="s">
-        <v>518</v>
-      </c>
-      <c r="D29" s="175" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" s="175" t="s">
-        <v>228</v>
-      </c>
-      <c r="F29" s="176" t="s">
-        <v>556</v>
-      </c>
-      <c r="G29" s="177" t="s">
-        <v>40</v>
-      </c>
-      <c r="H29" s="176" t="s">
-        <v>521</v>
-      </c>
-      <c r="I29" s="155">
-        <v>3</v>
-      </c>
-      <c r="J29" s="155">
-        <v>3</v>
-      </c>
-      <c r="K29" s="185">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L29" s="156"/>
-      <c r="M29" s="153" t="s">
-        <v>522</v>
-      </c>
-      <c r="N29" s="160"/>
-      <c r="O29" s="160"/>
-      <c r="P29" s="161" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="187" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A30" s="158">
-        <v>10</v>
-      </c>
-      <c r="B30" s="161" t="s">
-        <v>514</v>
-      </c>
-      <c r="C30" s="161" t="s">
-        <v>455</v>
-      </c>
-      <c r="D30" s="161" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="160" t="s">
-        <v>217</v>
-      </c>
-      <c r="F30" s="160" t="s">
-        <v>498</v>
-      </c>
-      <c r="G30" s="160" t="s">
-        <v>500</v>
-      </c>
-      <c r="H30" s="160" t="s">
-        <v>348</v>
-      </c>
-      <c r="I30" s="164">
-        <v>3</v>
-      </c>
-      <c r="J30" s="164">
-        <v>3</v>
-      </c>
-      <c r="K30" s="190">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L30" s="156"/>
-      <c r="M30" s="160" t="s">
-        <v>566</v>
-      </c>
-      <c r="N30" s="160" t="s">
-        <v>425</v>
-      </c>
-      <c r="O30" s="172"/>
-      <c r="P30" s="173"/>
-      <c r="Q30" s="187" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="2" customFormat="1" ht="204" x14ac:dyDescent="0.2">
-      <c r="A31" s="158">
-        <v>14</v>
-      </c>
-      <c r="B31" s="161" t="s">
-        <v>517</v>
-      </c>
-      <c r="C31" s="161" t="s">
-        <v>400</v>
-      </c>
-      <c r="D31" s="161" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="160" t="s">
-        <v>305</v>
-      </c>
-      <c r="F31" s="160" t="s">
-        <v>403</v>
-      </c>
-      <c r="G31" s="160" t="s">
-        <v>411</v>
-      </c>
-      <c r="H31" s="160" t="s">
-        <v>412</v>
-      </c>
-      <c r="I31" s="164">
-        <v>3</v>
-      </c>
-      <c r="J31" s="164">
-        <v>3</v>
-      </c>
-      <c r="K31" s="190">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L31" s="156"/>
-      <c r="M31" s="160"/>
-      <c r="N31" s="160"/>
-      <c r="O31" s="165"/>
-      <c r="P31" s="161"/>
-      <c r="Q31" s="187" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A32" s="158">
-        <v>34</v>
-      </c>
-      <c r="B32" s="161"/>
-      <c r="C32" s="161" t="s">
-        <v>456</v>
-      </c>
-      <c r="D32" s="161" t="s">
-        <v>185</v>
-      </c>
-      <c r="E32" s="160" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="160" t="s">
-        <v>383</v>
-      </c>
-      <c r="G32" s="160" t="s">
-        <v>384</v>
-      </c>
-      <c r="H32" s="160" t="s">
-        <v>385</v>
-      </c>
-      <c r="I32" s="164">
-        <v>3</v>
-      </c>
-      <c r="J32" s="164">
-        <v>3</v>
-      </c>
-      <c r="K32" s="190">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L32" s="156"/>
-      <c r="M32" s="160" t="s">
-        <v>435</v>
-      </c>
-      <c r="N32" s="160" t="s">
-        <v>436</v>
-      </c>
-      <c r="O32" s="160" t="s">
-        <v>437</v>
-      </c>
-      <c r="P32" s="161" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q32" s="188"/>
-    </row>
-    <row r="33" spans="1:17" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A33" s="151">
-        <v>35</v>
-      </c>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" s="154" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="153" t="s">
-        <v>358</v>
-      </c>
-      <c r="F33" s="153" t="s">
-        <v>356</v>
-      </c>
-      <c r="G33" s="153" t="s">
-        <v>357</v>
-      </c>
-      <c r="H33" s="153" t="s">
-        <v>359</v>
-      </c>
-      <c r="I33" s="155">
-        <v>3</v>
-      </c>
-      <c r="J33" s="155">
-        <v>3</v>
-      </c>
-      <c r="K33" s="190">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L33" s="156"/>
-      <c r="M33" s="154"/>
-      <c r="N33" s="154"/>
-      <c r="O33" s="154"/>
-      <c r="P33" s="154"/>
-      <c r="Q33" s="188"/>
-    </row>
-    <row r="34" spans="1:17" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A34" s="166">
-        <v>36</v>
-      </c>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161" t="s">
-        <v>214</v>
-      </c>
-      <c r="D34" s="161" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="160" t="s">
-        <v>396</v>
-      </c>
-      <c r="F34" s="160" t="s">
-        <v>393</v>
-      </c>
-      <c r="G34" s="160" t="s">
-        <v>394</v>
-      </c>
-      <c r="H34" s="160" t="s">
-        <v>395</v>
-      </c>
-      <c r="I34" s="164">
-        <v>3</v>
-      </c>
-      <c r="J34" s="164">
-        <v>3</v>
-      </c>
-      <c r="K34" s="190">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L34" s="156"/>
-      <c r="M34" s="161"/>
-      <c r="N34" s="161"/>
-      <c r="O34" s="161"/>
-      <c r="P34" s="161"/>
-      <c r="Q34" s="188"/>
-    </row>
-    <row r="35" spans="1:17" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A35" s="151">
-        <v>37</v>
-      </c>
-      <c r="B35" s="154"/>
-      <c r="C35" s="154" t="s">
-        <v>214</v>
-      </c>
-      <c r="D35" s="154" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="153" t="s">
-        <v>396</v>
-      </c>
-      <c r="F35" s="153" t="s">
-        <v>397</v>
-      </c>
-      <c r="G35" s="153" t="s">
-        <v>398</v>
-      </c>
-      <c r="H35" s="153" t="s">
-        <v>399</v>
-      </c>
-      <c r="I35" s="155">
-        <v>3</v>
-      </c>
-      <c r="J35" s="155">
-        <v>3</v>
-      </c>
-      <c r="K35" s="190">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L35" s="156"/>
-      <c r="M35" s="154"/>
-      <c r="N35" s="154"/>
-      <c r="O35" s="154"/>
-      <c r="P35" s="154"/>
-      <c r="Q35" s="188"/>
-    </row>
-    <row r="36" spans="1:17" s="2" customFormat="1" ht="289" x14ac:dyDescent="0.2">
-      <c r="A36" s="151">
-        <v>9</v>
-      </c>
-      <c r="B36" s="154" t="s">
-        <v>514</v>
-      </c>
-      <c r="C36" s="154" t="s">
-        <v>455</v>
-      </c>
-      <c r="D36" s="154" t="s">
-        <v>267</v>
-      </c>
-      <c r="E36" s="153" t="s">
-        <v>217</v>
-      </c>
-      <c r="F36" s="153" t="s">
-        <v>497</v>
-      </c>
-      <c r="G36" s="153" t="s">
-        <v>499</v>
-      </c>
-      <c r="H36" s="153" t="s">
-        <v>424</v>
-      </c>
-      <c r="I36" s="155">
-        <v>3</v>
-      </c>
-      <c r="J36" s="155">
+      <c r="J37" s="155">
         <v>2</v>
       </c>
-      <c r="K36" s="190">
+      <c r="K37" s="189">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L36" s="156"/>
-      <c r="M36" s="153" t="s">
-        <v>426</v>
-      </c>
-      <c r="N36" s="153" t="s">
+      <c r="L37" s="156"/>
+      <c r="M37" s="153" t="s">
+        <v>423</v>
+      </c>
+      <c r="N37" s="153" t="s">
+        <v>422</v>
+      </c>
+      <c r="O37" s="153"/>
+      <c r="P37" s="163"/>
+      <c r="Q37" s="186" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A38" s="166">
+        <v>38</v>
+      </c>
+      <c r="B38" s="167" t="s">
+        <v>509</v>
+      </c>
+      <c r="C38" s="167" t="s">
+        <v>451</v>
+      </c>
+      <c r="D38" s="167" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" s="167" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="168" t="s">
+        <v>459</v>
+      </c>
+      <c r="G38" s="167" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="169" t="s">
+        <v>460</v>
+      </c>
+      <c r="I38" s="170">
+        <v>1</v>
+      </c>
+      <c r="J38" s="170">
+        <v>1</v>
+      </c>
+      <c r="K38" s="199">
+        <v>1</v>
+      </c>
+      <c r="L38" s="171"/>
+      <c r="M38" s="169" t="s">
+        <v>427</v>
+      </c>
+      <c r="N38" s="169" t="s">
+        <v>428</v>
+      </c>
+      <c r="O38" s="169" t="s">
         <v>425</v>
       </c>
-      <c r="O36" s="153"/>
-      <c r="P36" s="154"/>
-      <c r="Q36" s="187" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A37" s="166">
-        <v>38</v>
-      </c>
-      <c r="B37" s="167" t="s">
-        <v>514</v>
-      </c>
-      <c r="C37" s="167" t="s">
-        <v>456</v>
-      </c>
-      <c r="D37" s="167" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="167" t="s">
-        <v>228</v>
-      </c>
-      <c r="F37" s="168" t="s">
-        <v>464</v>
-      </c>
-      <c r="G37" s="167" t="s">
-        <v>40</v>
-      </c>
-      <c r="H37" s="169" t="s">
-        <v>465</v>
-      </c>
-      <c r="I37" s="170">
+      <c r="P38" s="170" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="186" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A39" s="166">
+        <v>12</v>
+      </c>
+      <c r="B39" s="161" t="s">
+        <v>509</v>
+      </c>
+      <c r="C39" s="161" t="s">
+        <v>450</v>
+      </c>
+      <c r="D39" s="161" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="160" t="s">
+        <v>371</v>
+      </c>
+      <c r="F39" s="160" t="s">
+        <v>402</v>
+      </c>
+      <c r="G39" s="160" t="s">
+        <v>403</v>
+      </c>
+      <c r="H39" s="160" t="s">
+        <v>498</v>
+      </c>
+      <c r="I39" s="164">
         <v>1</v>
       </c>
-      <c r="J37" s="170">
+      <c r="J39" s="164">
         <v>1</v>
       </c>
-      <c r="K37" s="200">
+      <c r="K39" s="189">
         <v>1</v>
       </c>
-      <c r="L37" s="171"/>
-      <c r="M37" s="169" t="s">
-        <v>430</v>
-      </c>
-      <c r="N37" s="169" t="s">
-        <v>431</v>
-      </c>
-      <c r="O37" s="169" t="s">
-        <v>428</v>
-      </c>
-      <c r="P37" s="167" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q37" s="187" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="2" customFormat="1" ht="187" x14ac:dyDescent="0.2">
-      <c r="A38" s="166">
-        <v>12</v>
-      </c>
-      <c r="B38" s="161" t="s">
-        <v>514</v>
-      </c>
-      <c r="C38" s="161" t="s">
-        <v>455</v>
-      </c>
-      <c r="D38" s="161" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="160" t="s">
-        <v>372</v>
-      </c>
-      <c r="F38" s="160" t="s">
-        <v>404</v>
-      </c>
-      <c r="G38" s="160" t="s">
-        <v>405</v>
-      </c>
-      <c r="H38" s="160" t="s">
-        <v>503</v>
-      </c>
-      <c r="I38" s="164">
-        <v>1</v>
-      </c>
-      <c r="J38" s="164">
-        <v>1</v>
-      </c>
-      <c r="K38" s="190">
-        <v>1</v>
-      </c>
-      <c r="L38" s="156"/>
-      <c r="M38" s="160" t="s">
-        <v>504</v>
-      </c>
-      <c r="N38" s="160"/>
-      <c r="O38" s="160"/>
-      <c r="P38" s="161"/>
-      <c r="Q38" s="187" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A39" s="151">
-        <v>13</v>
-      </c>
-      <c r="B39" s="154" t="s">
-        <v>517</v>
-      </c>
-      <c r="C39" s="154" t="s">
-        <v>332</v>
-      </c>
-      <c r="D39" s="154" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="153" t="s">
-        <v>360</v>
-      </c>
-      <c r="F39" s="153" t="s">
-        <v>361</v>
-      </c>
-      <c r="G39" s="153" t="s">
-        <v>362</v>
-      </c>
-      <c r="H39" s="153" t="s">
-        <v>363</v>
-      </c>
-      <c r="I39" s="155">
-        <v>1</v>
-      </c>
-      <c r="J39" s="155">
-        <v>1</v>
-      </c>
-      <c r="K39" s="190">
-        <v>1</v>
-      </c>
       <c r="L39" s="156"/>
-      <c r="M39" s="153"/>
-      <c r="N39" s="153"/>
-      <c r="O39" s="153"/>
-      <c r="P39" s="154"/>
-      <c r="Q39" s="187" t="s">
-        <v>570</v>
+      <c r="M39" s="160" t="s">
+        <v>499</v>
+      </c>
+      <c r="N39" s="160"/>
+      <c r="O39" s="160"/>
+      <c r="P39" s="213"/>
+      <c r="Q39" s="186" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A40" s="151">
-        <v>15</v>
-      </c>
-      <c r="B40" s="153" t="s">
-        <v>517</v>
-      </c>
-      <c r="C40" s="153" t="s">
-        <v>183</v>
-      </c>
-      <c r="D40" s="153" t="s">
-        <v>151</v>
+        <v>13</v>
+      </c>
+      <c r="B40" s="154" t="s">
+        <v>512</v>
+      </c>
+      <c r="C40" s="154" t="s">
+        <v>332</v>
+      </c>
+      <c r="D40" s="154" t="s">
+        <v>185</v>
       </c>
       <c r="E40" s="153" t="s">
-        <v>23</v>
+        <v>359</v>
       </c>
       <c r="F40" s="153" t="s">
-        <v>505</v>
+        <v>360</v>
       </c>
       <c r="G40" s="153" t="s">
-        <v>506</v>
+        <v>361</v>
       </c>
       <c r="H40" s="153" t="s">
-        <v>507</v>
+        <v>362</v>
       </c>
       <c r="I40" s="155">
         <v>1</v>
@@ -10135,50 +10469,42 @@
       <c r="J40" s="155">
         <v>1</v>
       </c>
-      <c r="K40" s="190">
+      <c r="K40" s="189">
         <v>1</v>
       </c>
       <c r="L40" s="156"/>
-      <c r="M40" s="153" t="s">
-        <v>508</v>
-      </c>
-      <c r="N40" s="153" t="s">
-        <v>27</v>
-      </c>
-      <c r="O40" s="153" t="s">
-        <v>438</v>
-      </c>
-      <c r="P40" s="154" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="187" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+      <c r="M40" s="153"/>
+      <c r="N40" s="153"/>
+      <c r="O40" s="153"/>
+      <c r="P40" s="163"/>
+      <c r="Q40" s="186" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A41" s="151">
+        <v>15</v>
+      </c>
+      <c r="B41" s="153" t="s">
+        <v>512</v>
+      </c>
+      <c r="C41" s="153" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="154" t="s">
-        <v>517</v>
-      </c>
-      <c r="C41" s="154" t="s">
-        <v>214</v>
-      </c>
-      <c r="D41" s="154" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="153" t="s">
-        <v>355</v>
-      </c>
       <c r="F41" s="153" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="G41" s="153" t="s">
-        <v>354</v>
+        <v>501</v>
       </c>
       <c r="H41" s="153" t="s">
-        <v>366</v>
+        <v>502</v>
       </c>
       <c r="I41" s="155">
         <v>1</v>
@@ -10186,204 +10512,246 @@
       <c r="J41" s="155">
         <v>1</v>
       </c>
-      <c r="K41" s="190">
+      <c r="K41" s="189">
         <v>1</v>
       </c>
       <c r="L41" s="156"/>
       <c r="M41" s="153" t="s">
-        <v>427</v>
-      </c>
-      <c r="N41" s="153"/>
-      <c r="O41" s="153"/>
-      <c r="P41" s="154"/>
-      <c r="Q41" s="187" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A42" s="205">
+        <v>503</v>
+      </c>
+      <c r="N41" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="O41" s="153" t="s">
+        <v>435</v>
+      </c>
+      <c r="P41" s="163" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q41" s="186" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A42" s="151">
+        <v>23</v>
+      </c>
+      <c r="B42" s="154" t="s">
+        <v>512</v>
+      </c>
+      <c r="C42" s="154" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="154" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="153" t="s">
+        <v>354</v>
+      </c>
+      <c r="F42" s="153" t="s">
+        <v>452</v>
+      </c>
+      <c r="G42" s="153" t="s">
+        <v>353</v>
+      </c>
+      <c r="H42" s="153" t="s">
+        <v>365</v>
+      </c>
+      <c r="I42" s="155">
+        <v>1</v>
+      </c>
+      <c r="J42" s="155">
+        <v>1</v>
+      </c>
+      <c r="K42" s="189">
+        <v>1</v>
+      </c>
+      <c r="L42" s="156"/>
+      <c r="M42" s="153" t="s">
+        <v>424</v>
+      </c>
+      <c r="N42" s="153"/>
+      <c r="O42" s="153"/>
+      <c r="P42" s="163"/>
+      <c r="Q42" s="186" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" s="2" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A43" s="204">
         <v>29</v>
       </c>
-      <c r="B42" s="206"/>
-      <c r="C42" s="206" t="s">
+      <c r="B43" s="205"/>
+      <c r="C43" s="205" t="s">
         <v>214</v>
       </c>
-      <c r="D42" s="206" t="s">
+      <c r="D43" s="205" t="s">
         <v>215</v>
       </c>
-      <c r="E42" s="208" t="s">
+      <c r="E43" s="207" t="s">
         <v>271</v>
       </c>
-      <c r="F42" s="208" t="s">
-        <v>453</v>
-      </c>
-      <c r="G42" s="208" t="s">
-        <v>353</v>
-      </c>
-      <c r="H42" s="208"/>
-      <c r="I42" s="210">
+      <c r="F43" s="207" t="s">
+        <v>448</v>
+      </c>
+      <c r="G43" s="207" t="s">
+        <v>352</v>
+      </c>
+      <c r="H43" s="207"/>
+      <c r="I43" s="209">
         <v>1</v>
       </c>
-      <c r="J42" s="210">
+      <c r="J43" s="209">
         <v>1</v>
       </c>
-      <c r="K42" s="190">
+      <c r="K43" s="189">
         <v>1</v>
       </c>
-      <c r="L42" s="156"/>
-      <c r="M42" s="208"/>
-      <c r="N42" s="208"/>
-      <c r="O42" s="208"/>
-      <c r="P42" s="206"/>
-      <c r="Q42" s="187" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" s="2" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A43" s="166">
+      <c r="L43" s="156"/>
+      <c r="M43" s="207"/>
+      <c r="N43" s="207"/>
+      <c r="O43" s="207"/>
+      <c r="P43" s="215"/>
+      <c r="Q43" s="186" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" s="2" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A44" s="166">
         <v>30</v>
       </c>
-      <c r="B43" s="161"/>
-      <c r="C43" s="161" t="s">
-        <v>455</v>
-      </c>
-      <c r="D43" s="161" t="s">
+      <c r="B44" s="161"/>
+      <c r="C44" s="161" t="s">
+        <v>450</v>
+      </c>
+      <c r="D44" s="161" t="s">
         <v>267</v>
       </c>
-      <c r="E43" s="160" t="s">
+      <c r="E44" s="160" t="s">
         <v>264</v>
       </c>
-      <c r="F43" s="160" t="s">
+      <c r="F44" s="160" t="s">
+        <v>378</v>
+      </c>
+      <c r="G44" s="160" t="s">
+        <v>379</v>
+      </c>
+      <c r="H44" s="160" t="s">
         <v>380</v>
       </c>
-      <c r="G43" s="160" t="s">
-        <v>381</v>
-      </c>
-      <c r="H43" s="160" t="s">
-        <v>382</v>
-      </c>
-      <c r="I43" s="164">
+      <c r="I44" s="164">
         <v>1</v>
       </c>
-      <c r="J43" s="164">
+      <c r="J44" s="164">
         <v>1</v>
       </c>
-      <c r="K43" s="201">
+      <c r="K44" s="200">
         <v>1</v>
       </c>
-      <c r="L43" s="212"/>
-      <c r="M43" s="160"/>
-      <c r="N43" s="160"/>
-      <c r="O43" s="160"/>
-      <c r="P43" s="161"/>
-      <c r="Q43" s="187" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" ht="204" x14ac:dyDescent="0.2">
-      <c r="A44" s="204">
+      <c r="L44" s="211"/>
+      <c r="M44" s="160"/>
+      <c r="N44" s="160"/>
+      <c r="O44" s="160"/>
+      <c r="P44" s="213"/>
+      <c r="Q44" s="186" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="170" x14ac:dyDescent="0.2">
+      <c r="A45" s="203">
         <v>18</v>
       </c>
-      <c r="B44" s="192" t="s">
-        <v>517</v>
-      </c>
-      <c r="C44" s="192" t="s">
-        <v>455</v>
-      </c>
-      <c r="D44" s="192" t="s">
+      <c r="B45" s="191" t="s">
+        <v>512</v>
+      </c>
+      <c r="C45" s="191" t="s">
+        <v>450</v>
+      </c>
+      <c r="D45" s="191" t="s">
         <v>267</v>
       </c>
-      <c r="E44" s="197" t="s">
+      <c r="E45" s="196" t="s">
+        <v>373</v>
+      </c>
+      <c r="F45" s="196" t="s">
+        <v>374</v>
+      </c>
+      <c r="G45" s="196" t="s">
         <v>375</v>
       </c>
-      <c r="F44" s="197" t="s">
+      <c r="H45" s="196" t="s">
+        <v>377</v>
+      </c>
+      <c r="I45" s="208">
+        <v>1</v>
+      </c>
+      <c r="J45" s="208">
+        <v>1</v>
+      </c>
+      <c r="K45" s="210">
+        <v>1</v>
+      </c>
+      <c r="L45" s="159"/>
+      <c r="M45" s="196" t="s">
         <v>376</v>
       </c>
-      <c r="G44" s="197" t="s">
-        <v>377</v>
-      </c>
-      <c r="H44" s="197" t="s">
-        <v>379</v>
-      </c>
-      <c r="I44" s="209">
+      <c r="N45" s="196"/>
+      <c r="O45" s="196"/>
+      <c r="P45" s="216"/>
+      <c r="Q45" s="186" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="238" x14ac:dyDescent="0.2">
+      <c r="A46" s="190">
+        <v>2.1</v>
+      </c>
+      <c r="B46" s="191" t="s">
+        <v>509</v>
+      </c>
+      <c r="C46" s="191" t="s">
+        <v>513</v>
+      </c>
+      <c r="D46" s="191" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="192" t="s">
+        <v>462</v>
+      </c>
+      <c r="F46" s="193" t="s">
+        <v>463</v>
+      </c>
+      <c r="G46" s="193" t="s">
+        <v>515</v>
+      </c>
+      <c r="H46" s="193" t="s">
+        <v>464</v>
+      </c>
+      <c r="I46" s="194">
         <v>1</v>
       </c>
-      <c r="J44" s="209">
+      <c r="J46" s="194">
         <v>1</v>
       </c>
-      <c r="K44" s="211">
+      <c r="K46" s="184">
         <v>1</v>
       </c>
-      <c r="L44" s="159"/>
-      <c r="M44" s="197" t="s">
-        <v>378</v>
-      </c>
-      <c r="N44" s="197"/>
-      <c r="O44" s="197"/>
-      <c r="P44" s="192"/>
-      <c r="Q44" s="187" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" ht="289" x14ac:dyDescent="0.2">
-      <c r="A45" s="191">
-        <v>2.1</v>
-      </c>
-      <c r="B45" s="192" t="s">
-        <v>514</v>
-      </c>
-      <c r="C45" s="192" t="s">
-        <v>518</v>
-      </c>
-      <c r="D45" s="192" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="193" t="s">
-        <v>467</v>
-      </c>
-      <c r="F45" s="194" t="s">
-        <v>468</v>
-      </c>
-      <c r="G45" s="194" t="s">
-        <v>520</v>
-      </c>
-      <c r="H45" s="194" t="s">
-        <v>469</v>
-      </c>
-      <c r="I45" s="195">
-        <v>1</v>
-      </c>
-      <c r="J45" s="195">
-        <v>1</v>
-      </c>
-      <c r="K45" s="185">
-        <v>1</v>
-      </c>
-      <c r="L45" s="182"/>
-      <c r="M45" s="197" t="s">
-        <v>461</v>
-      </c>
-      <c r="N45" s="197" t="s">
-        <v>462</v>
-      </c>
-      <c r="O45" s="197" t="s">
-        <v>428</v>
-      </c>
-      <c r="P45" s="192" t="s">
+      <c r="L46" s="181"/>
+      <c r="M46" s="196" t="s">
+        <v>456</v>
+      </c>
+      <c r="N46" s="196" t="s">
+        <v>457</v>
+      </c>
+      <c r="O46" s="196" t="s">
+        <v>425</v>
+      </c>
+      <c r="P46" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="Q45" s="187" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D46" s="85"/>
-      <c r="F46" s="104"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
+      <c r="Q46" s="186" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D47" s="85"/>
@@ -10747,6 +11115,7 @@
     </row>
     <row r="87" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D87" s="85"/>
+      <c r="F87" s="104"/>
       <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
@@ -10835,6 +11204,11 @@
     </row>
     <row r="98" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D98" s="85"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
     </row>
     <row r="99" spans="4:14" x14ac:dyDescent="0.2">
       <c r="D99" s="85"/>
@@ -11499,10 +11873,17 @@
     <row r="319" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D319" s="85"/>
     </row>
+    <row r="320" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D320" s="85"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Q44" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q45">
-    <sortCondition descending="1" ref="K2:K45"/>
+  <autoFilter ref="A1:Q46" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:Q34">
+      <sortCondition descending="1" ref="K7:K34"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:Q46">
+    <sortCondition descending="1" ref="K3:K46"/>
   </sortState>
   <customSheetViews>
     <customSheetView guid="{3E876763-F606-47F1-99C8-ABF5E830FB8E}" scale="110" topLeftCell="C6">
@@ -11524,108 +11905,127 @@
       <pageSetup paperSize="9" orientation="portrait"/>
     </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="K9:K42 K5:K7">
+  <conditionalFormatting sqref="K10:K43 K6:K8">
+    <cfRule type="expression" dxfId="62" priority="41">
+      <formula>I6*J6&gt;16</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="42">
+      <formula>OR(AND(I6&gt;3,J6=3),AND(I6=4,J6=4),AND(I6=5,J6=2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="43">
+      <formula>OR(AND(I6=2,J6=5),AND(I6=5,J6=1),AND(I6=4,J6=2),AND(I6=3,J6&gt;2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="44">
+      <formula>OR(AND(I6&lt;5,I6*J6&lt;=6),AND(I6=2,J6=4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6 O8 O10:O43">
+    <cfRule type="expression" dxfId="58" priority="40">
+      <formula>AND(OR(L6="נדרשת",L6="בהכנה"),(O6-7)&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44">
     <cfRule type="expression" dxfId="57" priority="36">
-      <formula>I5*J5&gt;16</formula>
+      <formula>I44*J44&gt;16</formula>
     </cfRule>
     <cfRule type="expression" dxfId="56" priority="37">
-      <formula>OR(AND(I5&gt;3,J5=3),AND(I5=4,J5=4),AND(I5=5,J5=2))</formula>
+      <formula>OR(AND(I44&gt;3,J44=3),AND(I44=4,J44=4),AND(I44=5,J44=2))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="55" priority="38">
-      <formula>OR(AND(I5=2,J5=5),AND(I5=5,J5=1),AND(I5=4,J5=2),AND(I5=3,J5&gt;2))</formula>
+      <formula>OR(AND(I44=2,J44=5),AND(I44=5,J44=1),AND(I44=4,J44=2),AND(I44=3,J44&gt;2))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="54" priority="39">
-      <formula>OR(AND(I5&lt;5,I5*J5&lt;=6),AND(I5=2,J5=4))</formula>
+      <formula>OR(AND(I44&lt;5,I44*J44&lt;=6),AND(I44=2,J44=4))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5 O7 O9:O42">
+  <conditionalFormatting sqref="O44">
     <cfRule type="expression" dxfId="53" priority="35">
-      <formula>AND(OR(L5="נדרשת",L5="בהכנה"),(O5-7)&lt;TODAY())</formula>
+      <formula>AND(OR(L44="נדרשת",L44="בהכנה"),(O44-7)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="expression" dxfId="52" priority="31">
-      <formula>I43*J43&gt;16</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="32">
-      <formula>OR(AND(I43&gt;3,J43=3),AND(I43=4,J43=4),AND(I43=5,J43=2))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="33">
-      <formula>OR(AND(I43=2,J43=5),AND(I43=5,J43=1),AND(I43=4,J43=2),AND(I43=3,J43&gt;2))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="34">
-      <formula>OR(AND(I43&lt;5,I43*J43&lt;=6),AND(I43=2,J43=4))</formula>
+  <conditionalFormatting sqref="O3">
+    <cfRule type="expression" dxfId="52" priority="30">
+      <formula>AND(OR(L3="נדרשת",L3="בהכנה"),(O3-7)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O43">
-    <cfRule type="expression" dxfId="48" priority="30">
-      <formula>AND(OR(L43="נדרשת",L43="בהכנה"),(O43-7)&lt;TODAY())</formula>
+  <conditionalFormatting sqref="K3:K5">
+    <cfRule type="expression" dxfId="51" priority="26">
+      <formula>I3*J3&gt;16</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="27">
+      <formula>OR(AND(I3&gt;3,J3=3),AND(I3=4,J3=4),AND(I3=5,J3=2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="28">
+      <formula>OR(AND(I3=2,J3=5),AND(I3=5,J3=1),AND(I3=4,J3=2),AND(I3=3,J3&gt;2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="29">
+      <formula>OR(AND(I3&lt;5,I3*J3&lt;=6),AND(I3=2,J3=4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:O5">
+    <cfRule type="expression" dxfId="47" priority="25">
+      <formula>AND(OR(L4="נדרשת",L4="בהכנה"),(O4-7)&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7">
+    <cfRule type="expression" dxfId="46" priority="20">
+      <formula>AND(OR(L7="נדרשת",L7="בהכנה"),(O7-7)&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="expression" dxfId="45" priority="15">
+      <formula>AND(OR(L9="נדרשת",L9="בהכנה"),(O9-7)&lt;TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="expression" dxfId="44" priority="11">
+      <formula>I9*J9&gt;16</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="12">
+      <formula>OR(AND(I9&gt;3,J9=3),AND(I9=4,J9=4),AND(I9=5,J9=2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="13">
+      <formula>OR(AND(I9=2,J9=5),AND(I9=5,J9=1),AND(I9=4,J9=2),AND(I9=3,J9&gt;2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="14">
+      <formula>OR(AND(I9&lt;5,I9*J9&lt;=6),AND(I9=2,J9=4))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
+    <cfRule type="expression" dxfId="40" priority="7">
+      <formula>I46*J46&gt;16</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="8">
+      <formula>OR(AND(I46&gt;3,J46=3),AND(I46=4,J46=4),AND(I46=5,J46=2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="9">
+      <formula>OR(AND(I46=2,J46=5),AND(I46=5,J46=1),AND(I46=4,J46=2),AND(I46=3,J46&gt;2))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="10">
+      <formula>OR(AND(I46&lt;5,I46*J46&lt;=6),AND(I46=2,J46=4))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2">
-    <cfRule type="expression" dxfId="47" priority="25">
+    <cfRule type="expression" dxfId="36" priority="5">
       <formula>AND(OR(L2="נדרשת",L2="בהכנה"),(O2-7)&lt;TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K4">
-    <cfRule type="expression" dxfId="46" priority="21">
+  <conditionalFormatting sqref="K2">
+    <cfRule type="expression" dxfId="35" priority="1">
       <formula>I2*J2&gt;16</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="22">
+    <cfRule type="expression" dxfId="34" priority="2">
       <formula>OR(AND(I2&gt;3,J2=3),AND(I2=4,J2=4),AND(I2=5,J2=2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="23">
+    <cfRule type="expression" dxfId="33" priority="3">
       <formula>OR(AND(I2=2,J2=5),AND(I2=5,J2=1),AND(I2=4,J2=2),AND(I2=3,J2&gt;2))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="24">
+    <cfRule type="expression" dxfId="32" priority="4">
       <formula>OR(AND(I2&lt;5,I2*J2&lt;=6),AND(I2=2,J2=4))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O4">
-    <cfRule type="expression" dxfId="42" priority="20">
-      <formula>AND(OR(L3="נדרשת",L3="בהכנה"),(O3-7)&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6">
-    <cfRule type="expression" dxfId="41" priority="15">
-      <formula>AND(OR(L6="נדרשת",L6="בהכנה"),(O6-7)&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="40" priority="10">
-      <formula>AND(OR(L8="נדרשת",L8="בהכנה"),(O8-7)&lt;TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="39" priority="6">
-      <formula>I8*J8&gt;16</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="7">
-      <formula>OR(AND(I8&gt;3,J8=3),AND(I8=4,J8=4),AND(I8=5,J8=2))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="8">
-      <formula>OR(AND(I8=2,J8=5),AND(I8=5,J8=1),AND(I8=4,J8=2),AND(I8=3,J8&gt;2))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="9">
-      <formula>OR(AND(I8&lt;5,I8*J8&lt;=6),AND(I8=2,J8=4))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K45">
-    <cfRule type="expression" dxfId="35" priority="2">
-      <formula>I45*J45&gt;16</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="3">
-      <formula>OR(AND(I45&gt;3,J45=3),AND(I45=4,J45=4),AND(I45=5,J45=2))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="4">
-      <formula>OR(AND(I45=2,J45=5),AND(I45=5,J45=1),AND(I45=4,J45=2),AND(I45=3,J45&gt;2))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="5">
-      <formula>OR(AND(I45&lt;5,I45*J45&lt;=6),AND(I45=2,J45=4))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הזן מסמפר בין 0 ל-5 בלבד" sqref="I5:J18 I20:J43" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="הזן מסמפר בין 0 ל-5 בלבד" sqref="I6:J19 I21:J44" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>0</formula1>
       <formula2>5</formula2>
     </dataValidation>
@@ -11639,25 +12039,25 @@
           <x14:formula1>
             <xm:f>'טבלת פרמטרים'!$H$6:$H$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D44 D46:D191</xm:sqref>
+          <xm:sqref>D45 D47:D192</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="נא לבחור מרשימה" error="נתון לא ברשימה" xr:uid="{00000000-0002-0000-0200-000002000000}">
           <x14:formula1>
             <xm:f>'טבלת פרמטרים'!$C$7:$C$13</xm:f>
           </x14:formula1>
-          <xm:sqref>C44 C46:C191</xm:sqref>
+          <xm:sqref>C45 C47:C192</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="נתון לא ברשימה" error="נא להזין מרשימה" xr:uid="{00000000-0002-0000-0200-000003000000}">
           <x14:formula1>
             <xm:f>'טבלת פרמטרים'!$H$7:$H$13</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D43</xm:sqref>
+          <xm:sqref>D2:D44</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="נא לבחור מרשימה" error="ציר זה אינו מוכר - נא לבחור מרשימה" promptTitle="ציר" prompt="בחירת ציר_x000a_   - הקמת מערכת מידע לתפעול ייעודי   _x000a_   - ממשקים למערכת מידע לתפעול ייעודי_x000a_   - תשתיות SAP" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
             <xm:f>'טבלת פרמטרים'!$B$7:$B$10</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B43</xm:sqref>
+          <xm:sqref>B2:B44</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11680,22 +12080,22 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="4.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="28.6640625" style="54" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="25.5" style="45" customWidth="1"/>
     <col min="12" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="29.33203125" style="54" customWidth="1"/>
-    <col min="17" max="17" width="19.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="29.5" style="54" customWidth="1"/>
+    <col min="17" max="17" width="19.5" style="2" customWidth="1"/>
     <col min="18" max="18" width="17.1640625" style="3" customWidth="1"/>
     <col min="19" max="19" width="9" style="2"/>
     <col min="20" max="20" width="21.6640625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="23.33203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="23.5" style="2" customWidth="1"/>
     <col min="22" max="22" width="9" style="2"/>
     <col min="23" max="23" width="7" style="2" customWidth="1"/>
     <col min="24" max="16384" width="9" style="2"/>
@@ -11779,7 +12179,7 @@
       </c>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="3:23" ht="144" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:23" ht="128" x14ac:dyDescent="0.2">
       <c r="C7" s="7">
         <v>1</v>
       </c>
@@ -57849,23 +58249,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" customWidth="1"/>
     <col min="7" max="8" width="1.83203125" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="10" max="10" width="3.5" customWidth="1"/>
     <col min="11" max="13" width="1.83203125" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" customWidth="1"/>
+    <col min="14" max="14" width="6.5" customWidth="1"/>
     <col min="15" max="15" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="130" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -57890,11 +58290,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="8.1640625" customWidth="1"/>
@@ -57903,16 +58303,16 @@
     <col min="11" max="11" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.1640625" customWidth="1"/>
-    <col min="14" max="14" width="5.33203125" customWidth="1"/>
+    <col min="14" max="14" width="5.5" customWidth="1"/>
     <col min="15" max="15" width="4.83203125" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
     <col min="17" max="17" width="4.6640625" customWidth="1"/>
     <col min="18" max="18" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -57947,7 +58347,7 @@
     <row r="4" spans="2:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="109"/>
       <c r="C4" s="110" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D4" s="111"/>
       <c r="E4" s="111"/>
@@ -58019,7 +58419,7 @@
         <v>3</v>
       </c>
       <c r="I8" s="122" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="41" customHeight="1" x14ac:dyDescent="0.2">
@@ -58117,7 +58517,7 @@
     <row r="23" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="3:15" ht="18" x14ac:dyDescent="0.2">
       <c r="I24" s="110" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="J24" s="111"/>
       <c r="K24" s="111"/>
@@ -58212,7 +58612,7 @@
         <v>3</v>
       </c>
       <c r="O28" s="122" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="3:15" ht="16" x14ac:dyDescent="0.2">
@@ -58323,16 +58723,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.1640625" customWidth="1"/>
-    <col min="8" max="8" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
     <col min="9" max="9" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="149" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C6" s="70" t="s">
         <v>125</v>
@@ -58349,24 +58749,24 @@
     </row>
     <row r="7" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="150" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>322</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H7" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="150" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>332</v>
@@ -58381,7 +58781,7 @@
     </row>
     <row r="9" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="150" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>183</v>
@@ -58394,7 +58794,7 @@
     </row>
     <row r="10" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="150" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C10" s="26" t="s">
         <v>214</v>
@@ -58412,7 +58812,7 @@
         <v>192</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>267</v>
@@ -58423,10 +58823,10 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D12" s="106" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>48</v>
@@ -58451,7 +58851,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="64" x14ac:dyDescent="0.2">
@@ -58459,10 +58859,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="147" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D24" s="148" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
@@ -58470,10 +58870,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="147" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D25" s="147" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -58516,15 +58916,15 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.83203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="54" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="45" customWidth="1"/>
+    <col min="8" max="8" width="25.5" style="45" customWidth="1"/>
     <col min="9" max="12" width="9" style="2"/>
-    <col min="13" max="13" width="29.33203125" style="54" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="29.5" style="54" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="2" customWidth="1"/>
     <col min="15" max="15" width="17.1640625" style="3" customWidth="1"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
@@ -58678,7 +59078,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="15" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="15" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="71">
         <f t="shared" ref="A4:A56" si="1">+A3+1</f>
         <v>3</v>
